--- a/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
+++ b/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="102">
   <si>
     <t>PERIOD</t>
   </si>
@@ -329,6 +329,15 @@
   </si>
   <si>
     <t>UT(0-0-15)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>4/28,29/2022</t>
+  </si>
+  <si>
+    <t>UT(0-0-11)</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1260,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K192" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K193" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1610,11 +1619,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K192"/>
+  <dimension ref="A2:K193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,7 +1792,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>53.695999999999998</v>
+        <v>51.673000000000002</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2932,14 +2941,18 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
-        <f t="shared" ref="A66:A72" si="0">EDATE(A65,1)</f>
+        <f t="shared" ref="A66:A73" si="0">EDATE(A65,1)</f>
         <v>44652</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="C66" s="14">
         <v>1.25</v>
       </c>
-      <c r="D66" s="35"/>
+      <c r="D66" s="35">
+        <v>2</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="21"/>
       <c r="G66" s="14">
@@ -2949,43 +2962,40 @@
       <c r="H66" s="35"/>
       <c r="I66" s="9"/>
       <c r="J66" s="12"/>
-      <c r="K66" s="39"/>
+      <c r="K66" s="39" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="34">
-        <f>EDATE(A66,1)</f>
-        <v>44682</v>
-      </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D67" s="35"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="35">
+        <v>2.3000000000000007E-2</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="21"/>
-      <c r="G67" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G67" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H67" s="35"/>
       <c r="I67" s="9"/>
       <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
+      <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
-        <f t="shared" si="0"/>
-        <v>44713</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>98</v>
-      </c>
+        <f>EDATE(A66,1)</f>
+        <v>44682</v>
+      </c>
+      <c r="B68" s="21"/>
       <c r="C68" s="14">
         <v>1.25</v>
       </c>
-      <c r="D68" s="35">
-        <v>3.1000000000000014E-2</v>
-      </c>
+      <c r="D68" s="35"/>
       <c r="E68" s="9"/>
       <c r="F68" s="21"/>
       <c r="G68" s="14">
@@ -3000,13 +3010,17 @@
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
         <f t="shared" si="0"/>
-        <v>44743</v>
-      </c>
-      <c r="B69" s="21"/>
+        <v>44713</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="C69" s="14">
         <v>1.25</v>
       </c>
-      <c r="D69" s="35"/>
+      <c r="D69" s="35">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="21"/>
       <c r="G69" s="14">
@@ -3021,17 +3035,13 @@
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
         <f t="shared" si="0"/>
-        <v>44774</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>97</v>
-      </c>
+        <v>44743</v>
+      </c>
+      <c r="B70" s="21"/>
       <c r="C70" s="14">
         <v>1.25</v>
       </c>
-      <c r="D70" s="35">
-        <v>1.9000000000000003E-2</v>
-      </c>
+      <c r="D70" s="35"/>
       <c r="E70" s="9"/>
       <c r="F70" s="21"/>
       <c r="G70" s="14">
@@ -3046,13 +3056,17 @@
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
         <f t="shared" si="0"/>
-        <v>44805</v>
-      </c>
-      <c r="B71" s="21"/>
+        <v>44774</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="C71" s="14">
         <v>1.25</v>
       </c>
-      <c r="D71" s="35"/>
+      <c r="D71" s="35">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="21"/>
       <c r="G71" s="14">
@@ -3067,17 +3081,13 @@
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
         <f t="shared" si="0"/>
-        <v>44835</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>58</v>
-      </c>
+        <v>44805</v>
+      </c>
+      <c r="B72" s="21"/>
       <c r="C72" s="14">
         <v>1.25</v>
       </c>
-      <c r="D72" s="35">
-        <v>1</v>
-      </c>
+      <c r="D72" s="35"/>
       <c r="E72" s="9"/>
       <c r="F72" s="21"/>
       <c r="G72" s="14">
@@ -3087,155 +3097,160 @@
       <c r="H72" s="35"/>
       <c r="I72" s="9"/>
       <c r="J72" s="12"/>
-      <c r="K72" s="39">
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="34">
+        <f t="shared" si="0"/>
+        <v>44835</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="35">
+        <v>1</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H73" s="35"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="39">
         <v>44862</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="37">
-        <v>1</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="36" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H73" s="37"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="51">
-        <v>44858</v>
-      </c>
-    </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="34">
-        <v>44866</v>
-      </c>
+      <c r="A74" s="34"/>
       <c r="B74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="36">
-        <v>1.25</v>
-      </c>
+      <c r="C74" s="36"/>
       <c r="D74" s="37">
         <v>1</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="16"/>
-      <c r="G74" s="36">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G74" s="36" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H74" s="37"/>
       <c r="I74" s="10"/>
       <c r="J74" s="13"/>
       <c r="K74" s="51">
-        <v>44882</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
+      <c r="A75" s="34">
+        <v>44866</v>
+      </c>
       <c r="B75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="36"/>
+      <c r="C75" s="36">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="37">
         <v>1</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="16"/>
-      <c r="G75" s="36" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="36">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="37"/>
       <c r="I75" s="10"/>
       <c r="J75" s="13"/>
       <c r="K75" s="51">
-        <v>44894</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="34"/>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="37">
+        <v>1</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="36" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="37"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="51">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="34"/>
+      <c r="B77" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="35">
+      <c r="C77" s="14"/>
+      <c r="D77" s="35">
         <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="35"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="39"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="34">
-        <v>44896</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D77" s="35">
-        <v>1</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="35"/>
       <c r="I77" s="9"/>
       <c r="J77" s="12"/>
-      <c r="K77" s="39">
-        <v>44914</v>
-      </c>
+      <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
+      <c r="A78" s="34">
+        <v>44896</v>
+      </c>
       <c r="B78" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="35">
         <v>1</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="35"/>
       <c r="I78" s="9"/>
       <c r="J78" s="12"/>
       <c r="K78" s="39">
-        <v>44902</v>
+        <v>44914</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" s="21"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="C79" s="14"/>
-      <c r="D79" s="35"/>
+      <c r="D79" s="35">
+        <v>1</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="21"/>
       <c r="G79" s="14" t="str">
@@ -3245,22 +3260,22 @@
       <c r="H79" s="35"/>
       <c r="I79" s="9"/>
       <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
+      <c r="K79" s="39">
+        <v>44902</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="34">
-        <v>44927</v>
+      <c r="A80" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="C80" s="14"/>
       <c r="D80" s="35"/>
       <c r="E80" s="9"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G80" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H80" s="35"/>
       <c r="I80" s="9"/>
@@ -3269,12 +3284,9 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="34">
-        <f>EDATE(A80,1)</f>
-        <v>44958</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>59</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B81" s="21"/>
       <c r="C81" s="14">
         <v>1.25</v>
       </c>
@@ -3285,39 +3297,42 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H81" s="35">
-        <v>1</v>
-      </c>
+      <c r="H81" s="35"/>
       <c r="I81" s="9"/>
       <c r="J81" s="12"/>
-      <c r="K81" s="39">
-        <v>44974</v>
-      </c>
+      <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
+      <c r="A82" s="34">
+        <f>EDATE(A81,1)</f>
+        <v>44958</v>
+      </c>
       <c r="B82" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="35"/>
       <c r="E82" s="9"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="35"/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H82" s="35">
+        <v>1</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="12"/>
       <c r="K82" s="39">
-        <v>44984</v>
+        <v>44974</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="34"/>
       <c r="B83" s="21" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C83" s="14"/>
       <c r="D83" s="35"/>
@@ -3330,77 +3345,70 @@
       <c r="H83" s="35"/>
       <c r="I83" s="9"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="39" t="s">
-        <v>93</v>
+      <c r="K83" s="39">
+        <v>44984</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="34">
-        <f>EDATE(A81,1)</f>
-        <v>44986</v>
-      </c>
+      <c r="A84" s="34"/>
       <c r="B84" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" s="14">
-        <v>1.25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C84" s="14"/>
       <c r="D84" s="35"/>
       <c r="E84" s="9"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H84" s="35">
-        <v>1</v>
-      </c>
+      <c r="G84" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="35"/>
       <c r="I84" s="9"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="39">
-        <v>44987</v>
+      <c r="K84" s="39" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="34">
-        <f t="shared" ref="A85:A147" si="1">EDATE(A84,1)</f>
-        <v>45017</v>
+        <f>EDATE(A82,1)</f>
+        <v>44986</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C85" s="14">
         <v>1.25</v>
       </c>
-      <c r="D85" s="35">
-        <v>2</v>
-      </c>
+      <c r="D85" s="35"/>
       <c r="E85" s="9"/>
       <c r="F85" s="21"/>
       <c r="G85" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H85" s="35"/>
+      <c r="H85" s="35">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="21" t="s">
-        <v>94</v>
+      <c r="K85" s="39">
+        <v>44987</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
-        <f t="shared" si="1"/>
-        <v>45047</v>
+        <f t="shared" ref="A86:A148" si="1">EDATE(A85,1)</f>
+        <v>45017</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C86" s="14">
         <v>1.25</v>
       </c>
       <c r="D86" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="21"/>
@@ -3411,14 +3419,14 @@
       <c r="H86" s="35"/>
       <c r="I86" s="9"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="39">
-        <v>45058</v>
+      <c r="K86" s="21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="34">
         <f t="shared" si="1"/>
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>60</v>
@@ -3439,59 +3447,67 @@
       <c r="I87" s="9"/>
       <c r="J87" s="12"/>
       <c r="K87" s="39">
-        <v>45097</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="34">
         <f t="shared" si="1"/>
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C88" s="14">
         <v>1.25</v>
       </c>
-      <c r="D88" s="35"/>
+      <c r="D88" s="35">
+        <v>1</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="21"/>
       <c r="G88" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H88" s="35">
-        <v>2</v>
-      </c>
+      <c r="H88" s="35"/>
       <c r="I88" s="9"/>
       <c r="J88" s="12"/>
-      <c r="K88" s="21" t="s">
-        <v>95</v>
+      <c r="K88" s="39">
+        <v>45097</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="34">
         <f t="shared" si="1"/>
-        <v>45139</v>
-      </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
+        <v>45108</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="35"/>
       <c r="E89" s="9"/>
       <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="35"/>
+      <c r="G89" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H89" s="35">
+        <v>2</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="12"/>
-      <c r="K89" s="21"/>
+      <c r="K89" s="21" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="34">
         <f t="shared" si="1"/>
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -3510,7 +3526,7 @@
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="34">
         <f t="shared" si="1"/>
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -3529,7 +3545,7 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="34">
         <f t="shared" si="1"/>
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -3548,45 +3564,45 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="34">
         <f t="shared" si="1"/>
-        <v>45261</v>
-      </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="37"/>
+        <v>45231</v>
+      </c>
+      <c r="B93" s="21"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="35"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="36" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="37"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="35"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="16"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="21"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="34">
         <f t="shared" si="1"/>
-        <v>45292</v>
-      </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="35"/>
+        <v>45261</v>
+      </c>
+      <c r="B94" s="16"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="37"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="35"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="36" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="37"/>
       <c r="I94" s="9"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="21"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="16"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="34">
         <f t="shared" si="1"/>
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -3605,7 +3621,7 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="34">
         <f t="shared" si="1"/>
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -3624,7 +3640,7 @@
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="34">
         <f t="shared" si="1"/>
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -3643,7 +3659,7 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="34">
         <f t="shared" si="1"/>
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3662,7 +3678,7 @@
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="34">
         <f t="shared" si="1"/>
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3681,7 +3697,7 @@
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="34">
         <f t="shared" si="1"/>
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3700,7 +3716,7 @@
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="34">
         <f t="shared" si="1"/>
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3719,7 +3735,7 @@
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="34">
         <f t="shared" si="1"/>
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3738,7 +3754,7 @@
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="34">
         <f t="shared" si="1"/>
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3757,7 +3773,7 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="34">
         <f t="shared" si="1"/>
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3776,7 +3792,7 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="34">
         <f t="shared" si="1"/>
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3795,7 +3811,7 @@
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="34">
         <f t="shared" si="1"/>
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3814,7 +3830,7 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="34">
         <f t="shared" si="1"/>
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3833,7 +3849,7 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="34">
         <f t="shared" si="1"/>
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3852,7 +3868,7 @@
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="34">
         <f t="shared" si="1"/>
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3871,7 +3887,7 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="34">
         <f t="shared" si="1"/>
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3890,7 +3906,7 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="34">
         <f t="shared" si="1"/>
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3909,7 +3925,7 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="34">
         <f t="shared" si="1"/>
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3928,7 +3944,7 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="34">
         <f t="shared" si="1"/>
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3947,7 +3963,7 @@
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="34">
         <f t="shared" si="1"/>
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3966,7 +3982,7 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="34">
         <f t="shared" si="1"/>
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -3985,7 +4001,7 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="34">
         <f t="shared" si="1"/>
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -4004,7 +4020,7 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="34">
         <f t="shared" si="1"/>
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -4023,7 +4039,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="34">
         <f t="shared" si="1"/>
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -4042,7 +4058,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="34">
         <f t="shared" si="1"/>
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -4061,7 +4077,7 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="34">
         <f t="shared" si="1"/>
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -4080,7 +4096,7 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="34">
         <f t="shared" si="1"/>
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -4099,7 +4115,7 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="34">
         <f t="shared" si="1"/>
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -4118,7 +4134,7 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="34">
         <f t="shared" si="1"/>
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -4137,7 +4153,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="34">
         <f t="shared" si="1"/>
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -4156,7 +4172,7 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="34">
         <f t="shared" si="1"/>
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -4175,7 +4191,7 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="34">
         <f t="shared" si="1"/>
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -4194,7 +4210,7 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="34">
         <f t="shared" si="1"/>
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -4213,7 +4229,7 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="34">
         <f t="shared" si="1"/>
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -4232,7 +4248,7 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="34">
         <f t="shared" si="1"/>
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -4251,7 +4267,7 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="34">
         <f t="shared" si="1"/>
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -4270,7 +4286,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="34">
         <f t="shared" si="1"/>
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -4289,7 +4305,7 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="34">
         <f t="shared" si="1"/>
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -4308,7 +4324,7 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="34">
         <f t="shared" si="1"/>
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -4327,7 +4343,7 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="34">
         <f t="shared" si="1"/>
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B134" s="21"/>
       <c r="C134" s="14"/>
@@ -4346,7 +4362,7 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="34">
         <f t="shared" si="1"/>
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B135" s="21"/>
       <c r="C135" s="14"/>
@@ -4365,7 +4381,7 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="34">
         <f t="shared" si="1"/>
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B136" s="21"/>
       <c r="C136" s="14"/>
@@ -4384,7 +4400,7 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="34">
         <f t="shared" si="1"/>
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B137" s="21"/>
       <c r="C137" s="14"/>
@@ -4403,7 +4419,7 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="34">
         <f t="shared" si="1"/>
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B138" s="21"/>
       <c r="C138" s="14"/>
@@ -4422,7 +4438,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="34">
         <f t="shared" si="1"/>
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B139" s="21"/>
       <c r="C139" s="14"/>
@@ -4441,7 +4457,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="34">
         <f t="shared" si="1"/>
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B140" s="21"/>
       <c r="C140" s="14"/>
@@ -4460,7 +4476,7 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="34">
         <f t="shared" si="1"/>
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -4479,7 +4495,7 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="34">
         <f t="shared" si="1"/>
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B142" s="21"/>
       <c r="C142" s="14"/>
@@ -4498,7 +4514,7 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="34">
         <f t="shared" si="1"/>
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B143" s="21"/>
       <c r="C143" s="14"/>
@@ -4517,7 +4533,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="34">
         <f t="shared" si="1"/>
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B144" s="21"/>
       <c r="C144" s="14"/>
@@ -4536,7 +4552,7 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="34">
         <f t="shared" si="1"/>
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B145" s="21"/>
       <c r="C145" s="14"/>
@@ -4555,7 +4571,7 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="34">
         <f t="shared" si="1"/>
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B146" s="21"/>
       <c r="C146" s="14"/>
@@ -4574,7 +4590,7 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="34">
         <f t="shared" si="1"/>
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B147" s="21"/>
       <c r="C147" s="14"/>
@@ -4592,8 +4608,8 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="34">
-        <f t="shared" ref="A148:A192" si="2">EDATE(A147,1)</f>
-        <v>46935</v>
+        <f t="shared" si="1"/>
+        <v>46905</v>
       </c>
       <c r="B148" s="21"/>
       <c r="C148" s="14"/>
@@ -4611,8 +4627,8 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="34">
-        <f t="shared" si="2"/>
-        <v>46966</v>
+        <f t="shared" ref="A149:A193" si="2">EDATE(A148,1)</f>
+        <v>46935</v>
       </c>
       <c r="B149" s="21"/>
       <c r="C149" s="14"/>
@@ -4631,7 +4647,7 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="34">
         <f t="shared" si="2"/>
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B150" s="21"/>
       <c r="C150" s="14"/>
@@ -4650,7 +4666,7 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="34">
         <f t="shared" si="2"/>
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B151" s="21"/>
       <c r="C151" s="14"/>
@@ -4669,7 +4685,7 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="34">
         <f t="shared" si="2"/>
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B152" s="21"/>
       <c r="C152" s="14"/>
@@ -4688,7 +4704,7 @@
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="34">
         <f t="shared" si="2"/>
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B153" s="21"/>
       <c r="C153" s="14"/>
@@ -4707,7 +4723,7 @@
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="34">
         <f t="shared" si="2"/>
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B154" s="21"/>
       <c r="C154" s="14"/>
@@ -4726,7 +4742,7 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="34">
         <f t="shared" si="2"/>
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B155" s="21"/>
       <c r="C155" s="14"/>
@@ -4745,7 +4761,7 @@
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="34">
         <f t="shared" si="2"/>
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B156" s="21"/>
       <c r="C156" s="14"/>
@@ -4764,7 +4780,7 @@
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="34">
         <f t="shared" si="2"/>
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B157" s="21"/>
       <c r="C157" s="14"/>
@@ -4783,7 +4799,7 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="34">
         <f t="shared" si="2"/>
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B158" s="21"/>
       <c r="C158" s="14"/>
@@ -4802,7 +4818,7 @@
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="34">
         <f t="shared" si="2"/>
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B159" s="21"/>
       <c r="C159" s="14"/>
@@ -4821,7 +4837,7 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="34">
         <f t="shared" si="2"/>
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B160" s="21"/>
       <c r="C160" s="14"/>
@@ -4840,7 +4856,7 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="34">
         <f t="shared" si="2"/>
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B161" s="21"/>
       <c r="C161" s="14"/>
@@ -4859,7 +4875,7 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="34">
         <f t="shared" si="2"/>
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B162" s="21"/>
       <c r="C162" s="14"/>
@@ -4878,7 +4894,7 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="34">
         <f t="shared" si="2"/>
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B163" s="21"/>
       <c r="C163" s="14"/>
@@ -4897,7 +4913,7 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="34">
         <f t="shared" si="2"/>
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B164" s="21"/>
       <c r="C164" s="14"/>
@@ -4916,7 +4932,7 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="34">
         <f t="shared" si="2"/>
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B165" s="21"/>
       <c r="C165" s="14"/>
@@ -4935,7 +4951,7 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="34">
         <f t="shared" si="2"/>
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B166" s="21"/>
       <c r="C166" s="14"/>
@@ -4954,7 +4970,7 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="34">
         <f t="shared" si="2"/>
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B167" s="21"/>
       <c r="C167" s="14"/>
@@ -4973,7 +4989,7 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="34">
         <f t="shared" si="2"/>
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B168" s="21"/>
       <c r="C168" s="14"/>
@@ -4992,7 +5008,7 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="34">
         <f t="shared" si="2"/>
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B169" s="21"/>
       <c r="C169" s="14"/>
@@ -5011,7 +5027,7 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="34">
         <f t="shared" si="2"/>
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B170" s="21"/>
       <c r="C170" s="14"/>
@@ -5030,7 +5046,7 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="34">
         <f t="shared" si="2"/>
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B171" s="21"/>
       <c r="C171" s="14"/>
@@ -5049,7 +5065,7 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="34">
         <f t="shared" si="2"/>
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B172" s="21"/>
       <c r="C172" s="14"/>
@@ -5068,7 +5084,7 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="34">
         <f t="shared" si="2"/>
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B173" s="21"/>
       <c r="C173" s="14"/>
@@ -5087,7 +5103,7 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="34">
         <f t="shared" si="2"/>
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B174" s="21"/>
       <c r="C174" s="14"/>
@@ -5106,7 +5122,7 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="34">
         <f t="shared" si="2"/>
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B175" s="21"/>
       <c r="C175" s="14"/>
@@ -5125,7 +5141,7 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="34">
         <f t="shared" si="2"/>
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B176" s="21"/>
       <c r="C176" s="14"/>
@@ -5144,7 +5160,7 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="34">
         <f t="shared" si="2"/>
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B177" s="21"/>
       <c r="C177" s="14"/>
@@ -5163,7 +5179,7 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="34">
         <f t="shared" si="2"/>
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B178" s="21"/>
       <c r="C178" s="14"/>
@@ -5182,7 +5198,7 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="34">
         <f t="shared" si="2"/>
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B179" s="21"/>
       <c r="C179" s="14"/>
@@ -5201,7 +5217,7 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="34">
         <f t="shared" si="2"/>
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B180" s="21"/>
       <c r="C180" s="14"/>
@@ -5220,7 +5236,7 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="34">
         <f t="shared" si="2"/>
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B181" s="21"/>
       <c r="C181" s="14"/>
@@ -5239,7 +5255,7 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="34">
         <f t="shared" si="2"/>
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B182" s="21"/>
       <c r="C182" s="14"/>
@@ -5258,7 +5274,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="34">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B183" s="21"/>
       <c r="C183" s="14"/>
@@ -5277,7 +5293,7 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="34">
         <f t="shared" si="2"/>
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B184" s="21"/>
       <c r="C184" s="14"/>
@@ -5296,7 +5312,7 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="34">
         <f t="shared" si="2"/>
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B185" s="21"/>
       <c r="C185" s="14"/>
@@ -5315,7 +5331,7 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="34">
         <f t="shared" si="2"/>
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B186" s="21"/>
       <c r="C186" s="14"/>
@@ -5334,7 +5350,7 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="34">
         <f t="shared" si="2"/>
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B187" s="21"/>
       <c r="C187" s="14"/>
@@ -5353,7 +5369,7 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="34">
         <f t="shared" si="2"/>
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B188" s="21"/>
       <c r="C188" s="14"/>
@@ -5372,7 +5388,7 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="34">
         <f t="shared" si="2"/>
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B189" s="21"/>
       <c r="C189" s="14"/>
@@ -5391,7 +5407,7 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="34">
         <f t="shared" si="2"/>
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B190" s="21"/>
       <c r="C190" s="14"/>
@@ -5410,7 +5426,7 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="34">
         <f t="shared" si="2"/>
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B191" s="21"/>
       <c r="C191" s="14"/>
@@ -5429,7 +5445,7 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="34">
         <f t="shared" si="2"/>
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B192" s="21"/>
       <c r="C192" s="14"/>
@@ -5444,6 +5460,25 @@
       <c r="I192" s="9"/>
       <c r="J192" s="12"/>
       <c r="K192" s="21"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="34">
+        <f t="shared" si="2"/>
+        <v>48274</v>
+      </c>
+      <c r="B193" s="21"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H193" s="35"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5494,7 +5529,7 @@
   <dimension ref="A2:K156"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3870" topLeftCell="A125" activePane="bottomLeft"/>
+      <pane ySplit="3870" topLeftCell="A122" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
     </sheetView>
@@ -8916,17 +8951,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -9027,11 +9062,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>3.1000000000000014E-2</v>
+        <v>2.3000000000000007E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="48">

--- a/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
+++ b/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t>UT(0-0-11)</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>8/30 - 9/1/2023</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1266,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K193" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1619,11 +1625,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K193"/>
+  <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <pane ySplit="3690" topLeftCell="A81" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1798,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>51.673000000000002</v>
+        <v>54.173000000000002</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1802,7 +1808,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>79.75</v>
+        <v>76.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3398,7 +3404,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
-        <f t="shared" ref="A86:A148" si="1">EDATE(A85,1)</f>
+        <f t="shared" ref="A86:A150" si="1">EDATE(A85,1)</f>
         <v>45017</v>
       </c>
       <c r="B86" s="21" t="s">
@@ -3509,45 +3515,60 @@
         <f t="shared" si="1"/>
         <v>45139</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
+      <c r="B90" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="35"/>
       <c r="E90" s="9"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="35"/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H90" s="35">
+        <v>1</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="39">
+        <v>45142</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="34">
         <f t="shared" si="1"/>
         <v>45170</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="14"/>
+      <c r="B91" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="35"/>
       <c r="E91" s="9"/>
       <c r="F91" s="21"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="35"/>
+      <c r="G91" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H91" s="35">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
+      <c r="K91" s="39">
+        <v>45163</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="34">
-        <f t="shared" si="1"/>
-        <v>45200</v>
-      </c>
-      <c r="B92" s="21"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="C92" s="14"/>
       <c r="D92" s="35"/>
       <c r="E92" s="9"/>
@@ -3556,17 +3577,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H92" s="35"/>
+      <c r="H92" s="35">
+        <v>3</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
+      <c r="K92" s="39" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="34">
-        <f t="shared" si="1"/>
-        <v>45231</v>
-      </c>
-      <c r="B93" s="21"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="C93" s="14"/>
       <c r="D93" s="35"/>
       <c r="E93" s="9"/>
@@ -3575,34 +3599,38 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="35"/>
+      <c r="H93" s="35">
+        <v>1</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
+      <c r="K93" s="39">
+        <v>45190</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="34">
-        <f t="shared" si="1"/>
-        <v>45261</v>
-      </c>
-      <c r="B94" s="16"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="37"/>
+        <f>EDATE(A91,1)</f>
+        <v>45200</v>
+      </c>
+      <c r="B94" s="21"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="36" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="37"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="35"/>
       <c r="I94" s="9"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="16"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="34">
         <f t="shared" si="1"/>
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -3621,26 +3649,26 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="34">
         <f t="shared" si="1"/>
-        <v>45323</v>
-      </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="35"/>
+        <v>45261</v>
+      </c>
+      <c r="B96" s="16"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="37"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="35"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="36" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="37"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="21"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="16"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="34">
         <f t="shared" si="1"/>
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -3659,7 +3687,7 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="34">
         <f t="shared" si="1"/>
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3678,7 +3706,7 @@
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="34">
         <f t="shared" si="1"/>
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3697,7 +3725,7 @@
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="34">
         <f t="shared" si="1"/>
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3716,7 +3744,7 @@
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="34">
         <f t="shared" si="1"/>
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3735,7 +3763,7 @@
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="34">
         <f t="shared" si="1"/>
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3754,7 +3782,7 @@
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="34">
         <f t="shared" si="1"/>
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3773,7 +3801,7 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="34">
         <f t="shared" si="1"/>
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3792,7 +3820,7 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="34">
         <f t="shared" si="1"/>
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3811,7 +3839,7 @@
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="34">
         <f t="shared" si="1"/>
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3830,7 +3858,7 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="34">
         <f t="shared" si="1"/>
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3849,7 +3877,7 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="34">
         <f t="shared" si="1"/>
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3868,7 +3896,7 @@
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="34">
         <f t="shared" si="1"/>
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3887,7 +3915,7 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="34">
         <f t="shared" si="1"/>
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3906,7 +3934,7 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="34">
         <f t="shared" si="1"/>
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3925,7 +3953,7 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="34">
         <f t="shared" si="1"/>
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3944,7 +3972,7 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="34">
         <f t="shared" si="1"/>
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3963,7 +3991,7 @@
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="34">
         <f t="shared" si="1"/>
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3982,7 +4010,7 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="34">
         <f t="shared" si="1"/>
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -4001,7 +4029,7 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="34">
         <f t="shared" si="1"/>
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -4020,7 +4048,7 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="34">
         <f t="shared" si="1"/>
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -4039,7 +4067,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="34">
         <f t="shared" si="1"/>
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -4058,7 +4086,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="34">
         <f t="shared" si="1"/>
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -4077,7 +4105,7 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="34">
         <f t="shared" si="1"/>
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -4096,7 +4124,7 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="34">
         <f t="shared" si="1"/>
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -4115,7 +4143,7 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="34">
         <f t="shared" si="1"/>
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -4134,7 +4162,7 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="34">
         <f t="shared" si="1"/>
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -4153,7 +4181,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="34">
         <f t="shared" si="1"/>
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -4172,7 +4200,7 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="34">
         <f t="shared" si="1"/>
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -4191,7 +4219,7 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="34">
         <f t="shared" si="1"/>
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -4210,7 +4238,7 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="34">
         <f t="shared" si="1"/>
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -4229,7 +4257,7 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="34">
         <f t="shared" si="1"/>
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -4248,7 +4276,7 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="34">
         <f t="shared" si="1"/>
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -4267,7 +4295,7 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="34">
         <f t="shared" si="1"/>
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -4286,7 +4314,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="34">
         <f t="shared" si="1"/>
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -4305,7 +4333,7 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="34">
         <f t="shared" si="1"/>
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -4324,7 +4352,7 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="34">
         <f t="shared" si="1"/>
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -4343,7 +4371,7 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="34">
         <f t="shared" si="1"/>
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B134" s="21"/>
       <c r="C134" s="14"/>
@@ -4362,7 +4390,7 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="34">
         <f t="shared" si="1"/>
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B135" s="21"/>
       <c r="C135" s="14"/>
@@ -4381,7 +4409,7 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="34">
         <f t="shared" si="1"/>
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B136" s="21"/>
       <c r="C136" s="14"/>
@@ -4400,7 +4428,7 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="34">
         <f t="shared" si="1"/>
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B137" s="21"/>
       <c r="C137" s="14"/>
@@ -4419,7 +4447,7 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="34">
         <f t="shared" si="1"/>
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B138" s="21"/>
       <c r="C138" s="14"/>
@@ -4438,7 +4466,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="34">
         <f t="shared" si="1"/>
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B139" s="21"/>
       <c r="C139" s="14"/>
@@ -4457,7 +4485,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="34">
         <f t="shared" si="1"/>
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B140" s="21"/>
       <c r="C140" s="14"/>
@@ -4476,7 +4504,7 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="34">
         <f t="shared" si="1"/>
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -4495,7 +4523,7 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="34">
         <f t="shared" si="1"/>
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B142" s="21"/>
       <c r="C142" s="14"/>
@@ -4514,7 +4542,7 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="34">
         <f t="shared" si="1"/>
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B143" s="21"/>
       <c r="C143" s="14"/>
@@ -4533,7 +4561,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="34">
         <f t="shared" si="1"/>
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B144" s="21"/>
       <c r="C144" s="14"/>
@@ -4552,7 +4580,7 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="34">
         <f t="shared" si="1"/>
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B145" s="21"/>
       <c r="C145" s="14"/>
@@ -4571,7 +4599,7 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="34">
         <f t="shared" si="1"/>
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B146" s="21"/>
       <c r="C146" s="14"/>
@@ -4590,7 +4618,7 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="34">
         <f t="shared" si="1"/>
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B147" s="21"/>
       <c r="C147" s="14"/>
@@ -4609,7 +4637,7 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="34">
         <f t="shared" si="1"/>
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B148" s="21"/>
       <c r="C148" s="14"/>
@@ -4627,8 +4655,8 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="34">
-        <f t="shared" ref="A149:A193" si="2">EDATE(A148,1)</f>
-        <v>46935</v>
+        <f t="shared" si="1"/>
+        <v>46874</v>
       </c>
       <c r="B149" s="21"/>
       <c r="C149" s="14"/>
@@ -4646,8 +4674,8 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="34">
-        <f t="shared" si="2"/>
-        <v>46966</v>
+        <f t="shared" si="1"/>
+        <v>46905</v>
       </c>
       <c r="B150" s="21"/>
       <c r="C150" s="14"/>
@@ -4665,8 +4693,8 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="34">
-        <f t="shared" si="2"/>
-        <v>46997</v>
+        <f t="shared" ref="A151:A195" si="2">EDATE(A150,1)</f>
+        <v>46935</v>
       </c>
       <c r="B151" s="21"/>
       <c r="C151" s="14"/>
@@ -4685,7 +4713,7 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="34">
         <f t="shared" si="2"/>
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B152" s="21"/>
       <c r="C152" s="14"/>
@@ -4704,7 +4732,7 @@
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="34">
         <f t="shared" si="2"/>
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B153" s="21"/>
       <c r="C153" s="14"/>
@@ -4723,7 +4751,7 @@
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="34">
         <f t="shared" si="2"/>
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B154" s="21"/>
       <c r="C154" s="14"/>
@@ -4742,7 +4770,7 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="34">
         <f t="shared" si="2"/>
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B155" s="21"/>
       <c r="C155" s="14"/>
@@ -4761,7 +4789,7 @@
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="34">
         <f t="shared" si="2"/>
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B156" s="21"/>
       <c r="C156" s="14"/>
@@ -4780,7 +4808,7 @@
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="34">
         <f t="shared" si="2"/>
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B157" s="21"/>
       <c r="C157" s="14"/>
@@ -4799,7 +4827,7 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="34">
         <f t="shared" si="2"/>
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B158" s="21"/>
       <c r="C158" s="14"/>
@@ -4818,7 +4846,7 @@
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="34">
         <f t="shared" si="2"/>
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B159" s="21"/>
       <c r="C159" s="14"/>
@@ -4837,7 +4865,7 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="34">
         <f t="shared" si="2"/>
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B160" s="21"/>
       <c r="C160" s="14"/>
@@ -4856,7 +4884,7 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="34">
         <f t="shared" si="2"/>
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B161" s="21"/>
       <c r="C161" s="14"/>
@@ -4875,7 +4903,7 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="34">
         <f t="shared" si="2"/>
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B162" s="21"/>
       <c r="C162" s="14"/>
@@ -4894,7 +4922,7 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="34">
         <f t="shared" si="2"/>
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B163" s="21"/>
       <c r="C163" s="14"/>
@@ -4913,7 +4941,7 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="34">
         <f t="shared" si="2"/>
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B164" s="21"/>
       <c r="C164" s="14"/>
@@ -4932,7 +4960,7 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="34">
         <f t="shared" si="2"/>
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B165" s="21"/>
       <c r="C165" s="14"/>
@@ -4951,7 +4979,7 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="34">
         <f t="shared" si="2"/>
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B166" s="21"/>
       <c r="C166" s="14"/>
@@ -4970,7 +4998,7 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="34">
         <f t="shared" si="2"/>
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B167" s="21"/>
       <c r="C167" s="14"/>
@@ -4989,7 +5017,7 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="34">
         <f t="shared" si="2"/>
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B168" s="21"/>
       <c r="C168" s="14"/>
@@ -5008,7 +5036,7 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="34">
         <f t="shared" si="2"/>
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B169" s="21"/>
       <c r="C169" s="14"/>
@@ -5027,7 +5055,7 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="34">
         <f t="shared" si="2"/>
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B170" s="21"/>
       <c r="C170" s="14"/>
@@ -5046,7 +5074,7 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="34">
         <f t="shared" si="2"/>
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B171" s="21"/>
       <c r="C171" s="14"/>
@@ -5065,7 +5093,7 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="34">
         <f t="shared" si="2"/>
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B172" s="21"/>
       <c r="C172" s="14"/>
@@ -5084,7 +5112,7 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="34">
         <f t="shared" si="2"/>
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B173" s="21"/>
       <c r="C173" s="14"/>
@@ -5103,7 +5131,7 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="34">
         <f t="shared" si="2"/>
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B174" s="21"/>
       <c r="C174" s="14"/>
@@ -5122,7 +5150,7 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="34">
         <f t="shared" si="2"/>
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B175" s="21"/>
       <c r="C175" s="14"/>
@@ -5141,7 +5169,7 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="34">
         <f t="shared" si="2"/>
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B176" s="21"/>
       <c r="C176" s="14"/>
@@ -5160,7 +5188,7 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="34">
         <f t="shared" si="2"/>
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B177" s="21"/>
       <c r="C177" s="14"/>
@@ -5179,7 +5207,7 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="34">
         <f t="shared" si="2"/>
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B178" s="21"/>
       <c r="C178" s="14"/>
@@ -5198,7 +5226,7 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="34">
         <f t="shared" si="2"/>
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B179" s="21"/>
       <c r="C179" s="14"/>
@@ -5217,7 +5245,7 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="34">
         <f t="shared" si="2"/>
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B180" s="21"/>
       <c r="C180" s="14"/>
@@ -5236,7 +5264,7 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="34">
         <f t="shared" si="2"/>
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B181" s="21"/>
       <c r="C181" s="14"/>
@@ -5255,7 +5283,7 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="34">
         <f t="shared" si="2"/>
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B182" s="21"/>
       <c r="C182" s="14"/>
@@ -5274,7 +5302,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="34">
         <f t="shared" si="2"/>
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B183" s="21"/>
       <c r="C183" s="14"/>
@@ -5293,7 +5321,7 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="34">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B184" s="21"/>
       <c r="C184" s="14"/>
@@ -5312,7 +5340,7 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="34">
         <f t="shared" si="2"/>
-        <v>48030</v>
+        <v>47969</v>
       </c>
       <c r="B185" s="21"/>
       <c r="C185" s="14"/>
@@ -5331,7 +5359,7 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="34">
         <f t="shared" si="2"/>
-        <v>48061</v>
+        <v>48000</v>
       </c>
       <c r="B186" s="21"/>
       <c r="C186" s="14"/>
@@ -5350,7 +5378,7 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="34">
         <f t="shared" si="2"/>
-        <v>48092</v>
+        <v>48030</v>
       </c>
       <c r="B187" s="21"/>
       <c r="C187" s="14"/>
@@ -5369,7 +5397,7 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="34">
         <f t="shared" si="2"/>
-        <v>48122</v>
+        <v>48061</v>
       </c>
       <c r="B188" s="21"/>
       <c r="C188" s="14"/>
@@ -5388,7 +5416,7 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="34">
         <f t="shared" si="2"/>
-        <v>48153</v>
+        <v>48092</v>
       </c>
       <c r="B189" s="21"/>
       <c r="C189" s="14"/>
@@ -5407,7 +5435,7 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="34">
         <f t="shared" si="2"/>
-        <v>48183</v>
+        <v>48122</v>
       </c>
       <c r="B190" s="21"/>
       <c r="C190" s="14"/>
@@ -5426,7 +5454,7 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="34">
         <f t="shared" si="2"/>
-        <v>48214</v>
+        <v>48153</v>
       </c>
       <c r="B191" s="21"/>
       <c r="C191" s="14"/>
@@ -5445,7 +5473,7 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="34">
         <f t="shared" si="2"/>
-        <v>48245</v>
+        <v>48183</v>
       </c>
       <c r="B192" s="21"/>
       <c r="C192" s="14"/>
@@ -5464,7 +5492,7 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="34">
         <f t="shared" si="2"/>
-        <v>48274</v>
+        <v>48214</v>
       </c>
       <c r="B193" s="21"/>
       <c r="C193" s="14"/>
@@ -5479,6 +5507,44 @@
       <c r="I193" s="9"/>
       <c r="J193" s="12"/>
       <c r="K193" s="21"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="34">
+        <f t="shared" si="2"/>
+        <v>48245</v>
+      </c>
+      <c r="B194" s="21"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="35"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H194" s="35"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="21"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="34">
+        <f t="shared" si="2"/>
+        <v>48274</v>
+      </c>
+      <c r="B195" s="21"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="35"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H195" s="35"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
+++ b/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>8/30 - 9/1/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1269,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K196" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K197" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1625,11 +1628,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K196"/>
+  <dimension ref="A2:K197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A81" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
+      <pane ySplit="3690" topLeftCell="A84" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1811,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>76.5</v>
+        <v>75.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
-        <f t="shared" ref="A86:A151" si="1">EDATE(A85,1)</f>
+        <f t="shared" ref="A86:A152" si="1">EDATE(A85,1)</f>
         <v>45017</v>
       </c>
       <c r="B86" s="21" t="s">
@@ -3702,30 +3705,31 @@
       <c r="K97" s="16"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="34">
-        <f t="shared" si="1"/>
-        <v>45292</v>
-      </c>
-      <c r="B98" s="21"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="35"/>
+      <c r="A98" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="16"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="35"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="36" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="37"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="21"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="16"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="34">
-        <f t="shared" si="1"/>
-        <v>45323</v>
-      </c>
-      <c r="B99" s="21"/>
+        <f>EDATE(A97,1)</f>
+        <v>45292</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="C99" s="14"/>
       <c r="D99" s="35"/>
       <c r="E99" s="9"/>
@@ -3734,15 +3738,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="35"/>
+      <c r="H99" s="35">
+        <v>1</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
+      <c r="K99" s="39">
+        <v>45296</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="34">
         <f t="shared" si="1"/>
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3761,7 +3769,7 @@
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="34">
         <f t="shared" si="1"/>
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3780,7 +3788,7 @@
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="34">
         <f t="shared" si="1"/>
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3799,7 +3807,7 @@
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="34">
         <f t="shared" si="1"/>
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3818,7 +3826,7 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="34">
         <f t="shared" si="1"/>
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3837,7 +3845,7 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="34">
         <f t="shared" si="1"/>
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3856,7 +3864,7 @@
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="34">
         <f t="shared" si="1"/>
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3875,7 +3883,7 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="34">
         <f t="shared" si="1"/>
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3894,7 +3902,7 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="34">
         <f t="shared" si="1"/>
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3913,7 +3921,7 @@
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="34">
         <f t="shared" si="1"/>
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3932,7 +3940,7 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="34">
         <f t="shared" si="1"/>
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3951,7 +3959,7 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="34">
         <f t="shared" si="1"/>
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3970,7 +3978,7 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="34">
         <f t="shared" si="1"/>
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3989,7 +3997,7 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="34">
         <f t="shared" si="1"/>
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -4008,7 +4016,7 @@
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="34">
         <f t="shared" si="1"/>
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -4027,7 +4035,7 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="34">
         <f t="shared" si="1"/>
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -4046,7 +4054,7 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="34">
         <f t="shared" si="1"/>
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -4065,7 +4073,7 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="34">
         <f t="shared" si="1"/>
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -4084,7 +4092,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="34">
         <f t="shared" si="1"/>
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -4103,7 +4111,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="34">
         <f t="shared" si="1"/>
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -4122,7 +4130,7 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="34">
         <f t="shared" si="1"/>
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -4141,7 +4149,7 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="34">
         <f t="shared" si="1"/>
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -4160,7 +4168,7 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="34">
         <f t="shared" si="1"/>
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -4179,7 +4187,7 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="34">
         <f t="shared" si="1"/>
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -4198,7 +4206,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="34">
         <f t="shared" si="1"/>
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -4217,7 +4225,7 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="34">
         <f t="shared" si="1"/>
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -4236,7 +4244,7 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="34">
         <f t="shared" si="1"/>
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -4255,7 +4263,7 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="34">
         <f t="shared" si="1"/>
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -4274,7 +4282,7 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="34">
         <f t="shared" si="1"/>
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -4293,7 +4301,7 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="34">
         <f t="shared" si="1"/>
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -4312,7 +4320,7 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="34">
         <f t="shared" si="1"/>
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -4331,7 +4339,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="34">
         <f t="shared" si="1"/>
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -4350,7 +4358,7 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="34">
         <f t="shared" si="1"/>
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -4369,7 +4377,7 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="34">
         <f t="shared" si="1"/>
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -4388,7 +4396,7 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="34">
         <f t="shared" si="1"/>
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B134" s="21"/>
       <c r="C134" s="14"/>
@@ -4407,7 +4415,7 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="34">
         <f t="shared" si="1"/>
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B135" s="21"/>
       <c r="C135" s="14"/>
@@ -4426,7 +4434,7 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="34">
         <f t="shared" si="1"/>
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B136" s="21"/>
       <c r="C136" s="14"/>
@@ -4445,7 +4453,7 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="34">
         <f t="shared" si="1"/>
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B137" s="21"/>
       <c r="C137" s="14"/>
@@ -4464,7 +4472,7 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="34">
         <f t="shared" si="1"/>
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B138" s="21"/>
       <c r="C138" s="14"/>
@@ -4483,7 +4491,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="34">
         <f t="shared" si="1"/>
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B139" s="21"/>
       <c r="C139" s="14"/>
@@ -4502,7 +4510,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="34">
         <f t="shared" si="1"/>
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B140" s="21"/>
       <c r="C140" s="14"/>
@@ -4521,7 +4529,7 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="34">
         <f t="shared" si="1"/>
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -4540,7 +4548,7 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="34">
         <f t="shared" si="1"/>
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B142" s="21"/>
       <c r="C142" s="14"/>
@@ -4559,7 +4567,7 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="34">
         <f t="shared" si="1"/>
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B143" s="21"/>
       <c r="C143" s="14"/>
@@ -4578,7 +4586,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="34">
         <f t="shared" si="1"/>
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B144" s="21"/>
       <c r="C144" s="14"/>
@@ -4597,7 +4605,7 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="34">
         <f t="shared" si="1"/>
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B145" s="21"/>
       <c r="C145" s="14"/>
@@ -4616,7 +4624,7 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="34">
         <f t="shared" si="1"/>
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B146" s="21"/>
       <c r="C146" s="14"/>
@@ -4635,7 +4643,7 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="34">
         <f t="shared" si="1"/>
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B147" s="21"/>
       <c r="C147" s="14"/>
@@ -4654,7 +4662,7 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="34">
         <f t="shared" si="1"/>
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B148" s="21"/>
       <c r="C148" s="14"/>
@@ -4673,7 +4681,7 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="34">
         <f t="shared" si="1"/>
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B149" s="21"/>
       <c r="C149" s="14"/>
@@ -4692,7 +4700,7 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="34">
         <f t="shared" si="1"/>
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B150" s="21"/>
       <c r="C150" s="14"/>
@@ -4711,7 +4719,7 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="34">
         <f t="shared" si="1"/>
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B151" s="21"/>
       <c r="C151" s="14"/>
@@ -4729,8 +4737,8 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="34">
-        <f t="shared" ref="A152:A196" si="2">EDATE(A151,1)</f>
-        <v>46935</v>
+        <f t="shared" si="1"/>
+        <v>46905</v>
       </c>
       <c r="B152" s="21"/>
       <c r="C152" s="14"/>
@@ -4748,8 +4756,8 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="34">
-        <f t="shared" si="2"/>
-        <v>46966</v>
+        <f t="shared" ref="A153:A197" si="2">EDATE(A152,1)</f>
+        <v>46935</v>
       </c>
       <c r="B153" s="21"/>
       <c r="C153" s="14"/>
@@ -4768,7 +4776,7 @@
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="34">
         <f t="shared" si="2"/>
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B154" s="21"/>
       <c r="C154" s="14"/>
@@ -4787,7 +4795,7 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="34">
         <f t="shared" si="2"/>
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B155" s="21"/>
       <c r="C155" s="14"/>
@@ -4806,7 +4814,7 @@
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="34">
         <f t="shared" si="2"/>
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B156" s="21"/>
       <c r="C156" s="14"/>
@@ -4825,7 +4833,7 @@
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="34">
         <f t="shared" si="2"/>
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B157" s="21"/>
       <c r="C157" s="14"/>
@@ -4844,7 +4852,7 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="34">
         <f t="shared" si="2"/>
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B158" s="21"/>
       <c r="C158" s="14"/>
@@ -4863,7 +4871,7 @@
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="34">
         <f t="shared" si="2"/>
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B159" s="21"/>
       <c r="C159" s="14"/>
@@ -4882,7 +4890,7 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="34">
         <f t="shared" si="2"/>
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B160" s="21"/>
       <c r="C160" s="14"/>
@@ -4901,7 +4909,7 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="34">
         <f t="shared" si="2"/>
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B161" s="21"/>
       <c r="C161" s="14"/>
@@ -4920,7 +4928,7 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="34">
         <f t="shared" si="2"/>
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B162" s="21"/>
       <c r="C162" s="14"/>
@@ -4939,7 +4947,7 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="34">
         <f t="shared" si="2"/>
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B163" s="21"/>
       <c r="C163" s="14"/>
@@ -4958,7 +4966,7 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="34">
         <f t="shared" si="2"/>
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B164" s="21"/>
       <c r="C164" s="14"/>
@@ -4977,7 +4985,7 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="34">
         <f t="shared" si="2"/>
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B165" s="21"/>
       <c r="C165" s="14"/>
@@ -4996,7 +5004,7 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="34">
         <f t="shared" si="2"/>
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B166" s="21"/>
       <c r="C166" s="14"/>
@@ -5015,7 +5023,7 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="34">
         <f t="shared" si="2"/>
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B167" s="21"/>
       <c r="C167" s="14"/>
@@ -5034,7 +5042,7 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="34">
         <f t="shared" si="2"/>
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B168" s="21"/>
       <c r="C168" s="14"/>
@@ -5053,7 +5061,7 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="34">
         <f t="shared" si="2"/>
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B169" s="21"/>
       <c r="C169" s="14"/>
@@ -5072,7 +5080,7 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="34">
         <f t="shared" si="2"/>
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B170" s="21"/>
       <c r="C170" s="14"/>
@@ -5091,7 +5099,7 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="34">
         <f t="shared" si="2"/>
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B171" s="21"/>
       <c r="C171" s="14"/>
@@ -5110,7 +5118,7 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="34">
         <f t="shared" si="2"/>
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B172" s="21"/>
       <c r="C172" s="14"/>
@@ -5129,7 +5137,7 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="34">
         <f t="shared" si="2"/>
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B173" s="21"/>
       <c r="C173" s="14"/>
@@ -5148,7 +5156,7 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="34">
         <f t="shared" si="2"/>
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B174" s="21"/>
       <c r="C174" s="14"/>
@@ -5167,7 +5175,7 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="34">
         <f t="shared" si="2"/>
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B175" s="21"/>
       <c r="C175" s="14"/>
@@ -5186,7 +5194,7 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="34">
         <f t="shared" si="2"/>
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B176" s="21"/>
       <c r="C176" s="14"/>
@@ -5205,7 +5213,7 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="34">
         <f t="shared" si="2"/>
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B177" s="21"/>
       <c r="C177" s="14"/>
@@ -5224,7 +5232,7 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="34">
         <f t="shared" si="2"/>
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B178" s="21"/>
       <c r="C178" s="14"/>
@@ -5243,7 +5251,7 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="34">
         <f t="shared" si="2"/>
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B179" s="21"/>
       <c r="C179" s="14"/>
@@ -5262,7 +5270,7 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="34">
         <f t="shared" si="2"/>
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B180" s="21"/>
       <c r="C180" s="14"/>
@@ -5281,7 +5289,7 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="34">
         <f t="shared" si="2"/>
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B181" s="21"/>
       <c r="C181" s="14"/>
@@ -5300,7 +5308,7 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="34">
         <f t="shared" si="2"/>
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B182" s="21"/>
       <c r="C182" s="14"/>
@@ -5319,7 +5327,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="34">
         <f t="shared" si="2"/>
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B183" s="21"/>
       <c r="C183" s="14"/>
@@ -5338,7 +5346,7 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="34">
         <f t="shared" si="2"/>
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B184" s="21"/>
       <c r="C184" s="14"/>
@@ -5357,7 +5365,7 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="34">
         <f t="shared" si="2"/>
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B185" s="21"/>
       <c r="C185" s="14"/>
@@ -5376,7 +5384,7 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="34">
         <f t="shared" si="2"/>
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B186" s="21"/>
       <c r="C186" s="14"/>
@@ -5395,7 +5403,7 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="34">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B187" s="21"/>
       <c r="C187" s="14"/>
@@ -5414,7 +5422,7 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="34">
         <f t="shared" si="2"/>
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B188" s="21"/>
       <c r="C188" s="14"/>
@@ -5433,7 +5441,7 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="34">
         <f t="shared" si="2"/>
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B189" s="21"/>
       <c r="C189" s="14"/>
@@ -5452,7 +5460,7 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="34">
         <f t="shared" si="2"/>
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B190" s="21"/>
       <c r="C190" s="14"/>
@@ -5471,7 +5479,7 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="34">
         <f t="shared" si="2"/>
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B191" s="21"/>
       <c r="C191" s="14"/>
@@ -5490,7 +5498,7 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="34">
         <f t="shared" si="2"/>
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B192" s="21"/>
       <c r="C192" s="14"/>
@@ -5509,7 +5517,7 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="34">
         <f t="shared" si="2"/>
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B193" s="21"/>
       <c r="C193" s="14"/>
@@ -5528,7 +5536,7 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="34">
         <f t="shared" si="2"/>
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B194" s="21"/>
       <c r="C194" s="14"/>
@@ -5547,7 +5555,7 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="34">
         <f t="shared" si="2"/>
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B195" s="21"/>
       <c r="C195" s="14"/>
@@ -5566,7 +5574,7 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="34">
         <f t="shared" si="2"/>
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B196" s="21"/>
       <c r="C196" s="14"/>
@@ -5581,6 +5589,25 @@
       <c r="I196" s="9"/>
       <c r="J196" s="12"/>
       <c r="K196" s="21"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="34">
+        <f t="shared" si="2"/>
+        <v>48274</v>
+      </c>
+      <c r="B197" s="21"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="35"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H197" s="35"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9053,17 +9080,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
+++ b/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="107">
   <si>
     <t>PERIOD</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>UT(0-6-47)</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1275,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K197" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K201" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1628,11 +1634,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K197"/>
+  <dimension ref="A2:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A84" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1807,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>53.423000000000002</v>
+        <v>54.04</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1811,7 +1817,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>75.5</v>
+        <v>78</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3407,7 +3413,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
-        <f t="shared" ref="A86:A152" si="1">EDATE(A85,1)</f>
+        <f t="shared" ref="A86:A156" si="1">EDATE(A85,1)</f>
         <v>45017</v>
       </c>
       <c r="B86" s="21" t="s">
@@ -3514,36 +3520,29 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="34">
-        <f t="shared" si="1"/>
-        <v>45139</v>
-      </c>
+      <c r="A90" s="34"/>
       <c r="B90" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C90" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D90" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="35">
+        <v>3.3000000000000015E-2</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H90" s="35">
-        <v>1</v>
-      </c>
+      <c r="G90" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="35"/>
       <c r="I90" s="9"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="39">
-        <v>45142</v>
-      </c>
+      <c r="K90" s="21"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="34">
-        <f t="shared" si="1"/>
-        <v>45170</v>
+        <f>EDATE(A89,1)</f>
+        <v>45139</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>59</v>
@@ -3564,43 +3563,46 @@
       <c r="I91" s="9"/>
       <c r="J91" s="12"/>
       <c r="K91" s="39">
-        <v>45163</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="34"/>
       <c r="B92" s="21" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C92" s="14"/>
-      <c r="D92" s="35"/>
+      <c r="D92" s="35">
+        <v>0.5</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="21"/>
       <c r="G92" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H92" s="35">
-        <v>3</v>
-      </c>
+      <c r="H92" s="35"/>
       <c r="I92" s="9"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="39" t="s">
-        <v>103</v>
-      </c>
+      <c r="K92" s="39"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
+      <c r="A93" s="34">
+        <f>EDATE(A91,1)</f>
+        <v>45170</v>
+      </c>
       <c r="B93" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="14"/>
+      <c r="C93" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="35"/>
       <c r="E93" s="9"/>
       <c r="F93" s="21"/>
-      <c r="G93" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="35">
         <v>1</v>
@@ -3608,69 +3610,61 @@
       <c r="I93" s="9"/>
       <c r="J93" s="12"/>
       <c r="K93" s="39">
-        <v>45190</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="34">
-        <f>EDATE(A91,1)</f>
-        <v>45200</v>
-      </c>
+      <c r="A94" s="34"/>
       <c r="B94" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C94" s="14">
-        <v>1.25</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C94" s="14"/>
       <c r="D94" s="35"/>
       <c r="E94" s="9"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G94" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H94" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="12"/>
-      <c r="K94" s="39">
-        <v>45204</v>
+      <c r="K94" s="39" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="34">
-        <f t="shared" si="1"/>
-        <v>45231</v>
-      </c>
+      <c r="A95" s="34"/>
       <c r="B95" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C95" s="14"/>
-      <c r="D95" s="35">
-        <v>1</v>
-      </c>
+      <c r="D95" s="35"/>
       <c r="E95" s="9"/>
       <c r="F95" s="21"/>
       <c r="G95" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H95" s="35"/>
+      <c r="H95" s="35">
+        <v>1</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="12"/>
       <c r="K95" s="39">
-        <v>45233</v>
+        <v>45190</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="34"/>
       <c r="B96" s="21" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="35">
-        <v>1</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="21"/>
@@ -3681,80 +3675,93 @@
       <c r="H96" s="35"/>
       <c r="I96" s="9"/>
       <c r="J96" s="12"/>
-      <c r="K96" s="39">
-        <v>45247</v>
-      </c>
+      <c r="K96" s="39"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="34">
-        <f>EDATE(A95,1)</f>
-        <v>45261</v>
-      </c>
-      <c r="B97" s="16"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="37"/>
+        <f>EDATE(A93,1)</f>
+        <v>45200</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D97" s="35"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="36" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="37"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H97" s="35">
+        <v>1</v>
+      </c>
       <c r="I97" s="9"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="16"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="39">
+        <v>45204</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="37"/>
+      <c r="A98" s="34">
+        <f t="shared" si="1"/>
+        <v>45231</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D98" s="35">
+        <v>1</v>
+      </c>
       <c r="E98" s="9"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="36" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="37"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H98" s="35"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="16"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="39">
+        <v>45233</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="34">
-        <f>EDATE(A97,1)</f>
-        <v>45292</v>
-      </c>
+      <c r="A99" s="34"/>
       <c r="B99" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C99" s="14"/>
-      <c r="D99" s="35"/>
+      <c r="D99" s="35">
+        <v>1</v>
+      </c>
       <c r="E99" s="9"/>
       <c r="F99" s="21"/>
       <c r="G99" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="35">
-        <v>1</v>
-      </c>
+      <c r="H99" s="35"/>
       <c r="I99" s="9"/>
       <c r="J99" s="12"/>
       <c r="K99" s="39">
-        <v>45296</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="34">
-        <f t="shared" si="1"/>
-        <v>45323</v>
-      </c>
-      <c r="B100" s="21"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="C100" s="14"/>
-      <c r="D100" s="35"/>
+      <c r="D100" s="35">
+        <v>2E-3</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="21"/>
       <c r="G100" s="14" t="str">
@@ -3764,52 +3771,59 @@
       <c r="H100" s="35"/>
       <c r="I100" s="9"/>
       <c r="J100" s="12"/>
-      <c r="K100" s="21"/>
+      <c r="K100" s="39"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="34">
-        <f t="shared" si="1"/>
-        <v>45352</v>
-      </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="35"/>
+        <f>EDATE(A98,1)</f>
+        <v>45261</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="36">
+        <v>1.25</v>
+      </c>
+      <c r="D101" s="37">
+        <v>0.5</v>
+      </c>
       <c r="E101" s="9"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="35"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="36">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H101" s="37"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="21"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="16"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="34">
-        <f t="shared" si="1"/>
-        <v>45383</v>
-      </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="35"/>
+      <c r="A102" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="16"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="37"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="35"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="36" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="37"/>
       <c r="I102" s="9"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="21"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="16"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="34">
-        <f t="shared" si="1"/>
-        <v>45413</v>
-      </c>
-      <c r="B103" s="21"/>
+        <f>EDATE(A101,1)</f>
+        <v>45292</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="C103" s="14"/>
       <c r="D103" s="35"/>
       <c r="E103" s="9"/>
@@ -3818,15 +3832,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H103" s="35"/>
+      <c r="H103" s="35">
+        <v>1</v>
+      </c>
       <c r="I103" s="9"/>
       <c r="J103" s="12"/>
-      <c r="K103" s="21"/>
+      <c r="K103" s="39">
+        <v>45296</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="34">
         <f t="shared" si="1"/>
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3845,7 +3863,7 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="34">
         <f t="shared" si="1"/>
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3864,7 +3882,7 @@
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="34">
         <f t="shared" si="1"/>
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3883,7 +3901,7 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="34">
         <f t="shared" si="1"/>
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3902,7 +3920,7 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="34">
         <f t="shared" si="1"/>
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3921,7 +3939,7 @@
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="34">
         <f t="shared" si="1"/>
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3940,7 +3958,7 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="34">
         <f t="shared" si="1"/>
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3959,7 +3977,7 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="34">
         <f t="shared" si="1"/>
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3978,7 +3996,7 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="34">
         <f t="shared" si="1"/>
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3997,7 +4015,7 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="34">
         <f t="shared" si="1"/>
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -4016,7 +4034,7 @@
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="34">
         <f t="shared" si="1"/>
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -4035,7 +4053,7 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="34">
         <f t="shared" si="1"/>
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -4054,7 +4072,7 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="34">
         <f t="shared" si="1"/>
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -4073,7 +4091,7 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="34">
         <f t="shared" si="1"/>
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -4092,7 +4110,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="34">
         <f t="shared" si="1"/>
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -4111,7 +4129,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="34">
         <f t="shared" si="1"/>
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -4130,7 +4148,7 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="34">
         <f t="shared" si="1"/>
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -4149,7 +4167,7 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="34">
         <f t="shared" si="1"/>
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -4168,7 +4186,7 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="34">
         <f t="shared" si="1"/>
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -4187,7 +4205,7 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="34">
         <f t="shared" si="1"/>
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -4206,7 +4224,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="34">
         <f t="shared" si="1"/>
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -4225,7 +4243,7 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="34">
         <f t="shared" si="1"/>
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -4244,7 +4262,7 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="34">
         <f t="shared" si="1"/>
-        <v>46113</v>
+        <v>45992</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -4263,7 +4281,7 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="34">
         <f t="shared" si="1"/>
-        <v>46143</v>
+        <v>46023</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -4282,7 +4300,7 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="34">
         <f t="shared" si="1"/>
-        <v>46174</v>
+        <v>46054</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -4301,7 +4319,7 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="34">
         <f t="shared" si="1"/>
-        <v>46204</v>
+        <v>46082</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -4320,7 +4338,7 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="34">
         <f t="shared" si="1"/>
-        <v>46235</v>
+        <v>46113</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -4339,7 +4357,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="34">
         <f t="shared" si="1"/>
-        <v>46266</v>
+        <v>46143</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -4358,7 +4376,7 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="34">
         <f t="shared" si="1"/>
-        <v>46296</v>
+        <v>46174</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -4377,7 +4395,7 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="34">
         <f t="shared" si="1"/>
-        <v>46327</v>
+        <v>46204</v>
       </c>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -4396,7 +4414,7 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="34">
         <f t="shared" si="1"/>
-        <v>46357</v>
+        <v>46235</v>
       </c>
       <c r="B134" s="21"/>
       <c r="C134" s="14"/>
@@ -4415,7 +4433,7 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="34">
         <f t="shared" si="1"/>
-        <v>46388</v>
+        <v>46266</v>
       </c>
       <c r="B135" s="21"/>
       <c r="C135" s="14"/>
@@ -4434,7 +4452,7 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="34">
         <f t="shared" si="1"/>
-        <v>46419</v>
+        <v>46296</v>
       </c>
       <c r="B136" s="21"/>
       <c r="C136" s="14"/>
@@ -4453,7 +4471,7 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="34">
         <f t="shared" si="1"/>
-        <v>46447</v>
+        <v>46327</v>
       </c>
       <c r="B137" s="21"/>
       <c r="C137" s="14"/>
@@ -4472,7 +4490,7 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="34">
         <f t="shared" si="1"/>
-        <v>46478</v>
+        <v>46357</v>
       </c>
       <c r="B138" s="21"/>
       <c r="C138" s="14"/>
@@ -4491,7 +4509,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="34">
         <f t="shared" si="1"/>
-        <v>46508</v>
+        <v>46388</v>
       </c>
       <c r="B139" s="21"/>
       <c r="C139" s="14"/>
@@ -4510,7 +4528,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="34">
         <f t="shared" si="1"/>
-        <v>46539</v>
+        <v>46419</v>
       </c>
       <c r="B140" s="21"/>
       <c r="C140" s="14"/>
@@ -4529,7 +4547,7 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="34">
         <f t="shared" si="1"/>
-        <v>46569</v>
+        <v>46447</v>
       </c>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -4548,7 +4566,7 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="34">
         <f t="shared" si="1"/>
-        <v>46600</v>
+        <v>46478</v>
       </c>
       <c r="B142" s="21"/>
       <c r="C142" s="14"/>
@@ -4567,7 +4585,7 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="34">
         <f t="shared" si="1"/>
-        <v>46631</v>
+        <v>46508</v>
       </c>
       <c r="B143" s="21"/>
       <c r="C143" s="14"/>
@@ -4586,7 +4604,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="34">
         <f t="shared" si="1"/>
-        <v>46661</v>
+        <v>46539</v>
       </c>
       <c r="B144" s="21"/>
       <c r="C144" s="14"/>
@@ -4605,7 +4623,7 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="34">
         <f t="shared" si="1"/>
-        <v>46692</v>
+        <v>46569</v>
       </c>
       <c r="B145" s="21"/>
       <c r="C145" s="14"/>
@@ -4624,7 +4642,7 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="34">
         <f t="shared" si="1"/>
-        <v>46722</v>
+        <v>46600</v>
       </c>
       <c r="B146" s="21"/>
       <c r="C146" s="14"/>
@@ -4643,7 +4661,7 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="34">
         <f t="shared" si="1"/>
-        <v>46753</v>
+        <v>46631</v>
       </c>
       <c r="B147" s="21"/>
       <c r="C147" s="14"/>
@@ -4662,7 +4680,7 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="34">
         <f t="shared" si="1"/>
-        <v>46784</v>
+        <v>46661</v>
       </c>
       <c r="B148" s="21"/>
       <c r="C148" s="14"/>
@@ -4681,7 +4699,7 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="34">
         <f t="shared" si="1"/>
-        <v>46813</v>
+        <v>46692</v>
       </c>
       <c r="B149" s="21"/>
       <c r="C149" s="14"/>
@@ -4700,7 +4718,7 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="34">
         <f t="shared" si="1"/>
-        <v>46844</v>
+        <v>46722</v>
       </c>
       <c r="B150" s="21"/>
       <c r="C150" s="14"/>
@@ -4719,7 +4737,7 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="34">
         <f t="shared" si="1"/>
-        <v>46874</v>
+        <v>46753</v>
       </c>
       <c r="B151" s="21"/>
       <c r="C151" s="14"/>
@@ -4738,7 +4756,7 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="34">
         <f t="shared" si="1"/>
-        <v>46905</v>
+        <v>46784</v>
       </c>
       <c r="B152" s="21"/>
       <c r="C152" s="14"/>
@@ -4756,8 +4774,8 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="34">
-        <f t="shared" ref="A153:A197" si="2">EDATE(A152,1)</f>
-        <v>46935</v>
+        <f t="shared" si="1"/>
+        <v>46813</v>
       </c>
       <c r="B153" s="21"/>
       <c r="C153" s="14"/>
@@ -4775,8 +4793,8 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="34">
-        <f t="shared" si="2"/>
-        <v>46966</v>
+        <f t="shared" si="1"/>
+        <v>46844</v>
       </c>
       <c r="B154" s="21"/>
       <c r="C154" s="14"/>
@@ -4794,8 +4812,8 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="34">
-        <f t="shared" si="2"/>
-        <v>46997</v>
+        <f t="shared" si="1"/>
+        <v>46874</v>
       </c>
       <c r="B155" s="21"/>
       <c r="C155" s="14"/>
@@ -4813,8 +4831,8 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="34">
-        <f t="shared" si="2"/>
-        <v>47027</v>
+        <f t="shared" si="1"/>
+        <v>46905</v>
       </c>
       <c r="B156" s="21"/>
       <c r="C156" s="14"/>
@@ -4832,8 +4850,8 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="34">
-        <f t="shared" si="2"/>
-        <v>47058</v>
+        <f t="shared" ref="A157:A201" si="2">EDATE(A156,1)</f>
+        <v>46935</v>
       </c>
       <c r="B157" s="21"/>
       <c r="C157" s="14"/>
@@ -4852,7 +4870,7 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="34">
         <f t="shared" si="2"/>
-        <v>47088</v>
+        <v>46966</v>
       </c>
       <c r="B158" s="21"/>
       <c r="C158" s="14"/>
@@ -4871,7 +4889,7 @@
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="34">
         <f t="shared" si="2"/>
-        <v>47119</v>
+        <v>46997</v>
       </c>
       <c r="B159" s="21"/>
       <c r="C159" s="14"/>
@@ -4890,7 +4908,7 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="34">
         <f t="shared" si="2"/>
-        <v>47150</v>
+        <v>47027</v>
       </c>
       <c r="B160" s="21"/>
       <c r="C160" s="14"/>
@@ -4909,7 +4927,7 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="34">
         <f t="shared" si="2"/>
-        <v>47178</v>
+        <v>47058</v>
       </c>
       <c r="B161" s="21"/>
       <c r="C161" s="14"/>
@@ -4928,7 +4946,7 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="34">
         <f t="shared" si="2"/>
-        <v>47209</v>
+        <v>47088</v>
       </c>
       <c r="B162" s="21"/>
       <c r="C162" s="14"/>
@@ -4947,7 +4965,7 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="34">
         <f t="shared" si="2"/>
-        <v>47239</v>
+        <v>47119</v>
       </c>
       <c r="B163" s="21"/>
       <c r="C163" s="14"/>
@@ -4966,7 +4984,7 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="34">
         <f t="shared" si="2"/>
-        <v>47270</v>
+        <v>47150</v>
       </c>
       <c r="B164" s="21"/>
       <c r="C164" s="14"/>
@@ -4985,7 +5003,7 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="34">
         <f t="shared" si="2"/>
-        <v>47300</v>
+        <v>47178</v>
       </c>
       <c r="B165" s="21"/>
       <c r="C165" s="14"/>
@@ -5004,7 +5022,7 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="34">
         <f t="shared" si="2"/>
-        <v>47331</v>
+        <v>47209</v>
       </c>
       <c r="B166" s="21"/>
       <c r="C166" s="14"/>
@@ -5023,7 +5041,7 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="34">
         <f t="shared" si="2"/>
-        <v>47362</v>
+        <v>47239</v>
       </c>
       <c r="B167" s="21"/>
       <c r="C167" s="14"/>
@@ -5042,7 +5060,7 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="34">
         <f t="shared" si="2"/>
-        <v>47392</v>
+        <v>47270</v>
       </c>
       <c r="B168" s="21"/>
       <c r="C168" s="14"/>
@@ -5061,7 +5079,7 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="34">
         <f t="shared" si="2"/>
-        <v>47423</v>
+        <v>47300</v>
       </c>
       <c r="B169" s="21"/>
       <c r="C169" s="14"/>
@@ -5080,7 +5098,7 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="34">
         <f t="shared" si="2"/>
-        <v>47453</v>
+        <v>47331</v>
       </c>
       <c r="B170" s="21"/>
       <c r="C170" s="14"/>
@@ -5099,7 +5117,7 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="34">
         <f t="shared" si="2"/>
-        <v>47484</v>
+        <v>47362</v>
       </c>
       <c r="B171" s="21"/>
       <c r="C171" s="14"/>
@@ -5118,7 +5136,7 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="34">
         <f t="shared" si="2"/>
-        <v>47515</v>
+        <v>47392</v>
       </c>
       <c r="B172" s="21"/>
       <c r="C172" s="14"/>
@@ -5137,7 +5155,7 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="34">
         <f t="shared" si="2"/>
-        <v>47543</v>
+        <v>47423</v>
       </c>
       <c r="B173" s="21"/>
       <c r="C173" s="14"/>
@@ -5156,7 +5174,7 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="34">
         <f t="shared" si="2"/>
-        <v>47574</v>
+        <v>47453</v>
       </c>
       <c r="B174" s="21"/>
       <c r="C174" s="14"/>
@@ -5175,7 +5193,7 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="34">
         <f t="shared" si="2"/>
-        <v>47604</v>
+        <v>47484</v>
       </c>
       <c r="B175" s="21"/>
       <c r="C175" s="14"/>
@@ -5194,7 +5212,7 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="34">
         <f t="shared" si="2"/>
-        <v>47635</v>
+        <v>47515</v>
       </c>
       <c r="B176" s="21"/>
       <c r="C176" s="14"/>
@@ -5213,7 +5231,7 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="34">
         <f t="shared" si="2"/>
-        <v>47665</v>
+        <v>47543</v>
       </c>
       <c r="B177" s="21"/>
       <c r="C177" s="14"/>
@@ -5232,7 +5250,7 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="34">
         <f t="shared" si="2"/>
-        <v>47696</v>
+        <v>47574</v>
       </c>
       <c r="B178" s="21"/>
       <c r="C178" s="14"/>
@@ -5251,7 +5269,7 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="34">
         <f t="shared" si="2"/>
-        <v>47727</v>
+        <v>47604</v>
       </c>
       <c r="B179" s="21"/>
       <c r="C179" s="14"/>
@@ -5270,7 +5288,7 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="34">
         <f t="shared" si="2"/>
-        <v>47757</v>
+        <v>47635</v>
       </c>
       <c r="B180" s="21"/>
       <c r="C180" s="14"/>
@@ -5289,7 +5307,7 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="34">
         <f t="shared" si="2"/>
-        <v>47788</v>
+        <v>47665</v>
       </c>
       <c r="B181" s="21"/>
       <c r="C181" s="14"/>
@@ -5308,7 +5326,7 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="34">
         <f t="shared" si="2"/>
-        <v>47818</v>
+        <v>47696</v>
       </c>
       <c r="B182" s="21"/>
       <c r="C182" s="14"/>
@@ -5327,7 +5345,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="34">
         <f t="shared" si="2"/>
-        <v>47849</v>
+        <v>47727</v>
       </c>
       <c r="B183" s="21"/>
       <c r="C183" s="14"/>
@@ -5346,7 +5364,7 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="34">
         <f t="shared" si="2"/>
-        <v>47880</v>
+        <v>47757</v>
       </c>
       <c r="B184" s="21"/>
       <c r="C184" s="14"/>
@@ -5365,7 +5383,7 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="34">
         <f t="shared" si="2"/>
-        <v>47908</v>
+        <v>47788</v>
       </c>
       <c r="B185" s="21"/>
       <c r="C185" s="14"/>
@@ -5384,7 +5402,7 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="34">
         <f t="shared" si="2"/>
-        <v>47939</v>
+        <v>47818</v>
       </c>
       <c r="B186" s="21"/>
       <c r="C186" s="14"/>
@@ -5403,7 +5421,7 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="34">
         <f t="shared" si="2"/>
-        <v>47969</v>
+        <v>47849</v>
       </c>
       <c r="B187" s="21"/>
       <c r="C187" s="14"/>
@@ -5422,7 +5440,7 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="34">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>47880</v>
       </c>
       <c r="B188" s="21"/>
       <c r="C188" s="14"/>
@@ -5441,7 +5459,7 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="34">
         <f t="shared" si="2"/>
-        <v>48030</v>
+        <v>47908</v>
       </c>
       <c r="B189" s="21"/>
       <c r="C189" s="14"/>
@@ -5460,7 +5478,7 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="34">
         <f t="shared" si="2"/>
-        <v>48061</v>
+        <v>47939</v>
       </c>
       <c r="B190" s="21"/>
       <c r="C190" s="14"/>
@@ -5479,7 +5497,7 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="34">
         <f t="shared" si="2"/>
-        <v>48092</v>
+        <v>47969</v>
       </c>
       <c r="B191" s="21"/>
       <c r="C191" s="14"/>
@@ -5498,7 +5516,7 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="34">
         <f t="shared" si="2"/>
-        <v>48122</v>
+        <v>48000</v>
       </c>
       <c r="B192" s="21"/>
       <c r="C192" s="14"/>
@@ -5517,7 +5535,7 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="34">
         <f t="shared" si="2"/>
-        <v>48153</v>
+        <v>48030</v>
       </c>
       <c r="B193" s="21"/>
       <c r="C193" s="14"/>
@@ -5536,7 +5554,7 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="34">
         <f t="shared" si="2"/>
-        <v>48183</v>
+        <v>48061</v>
       </c>
       <c r="B194" s="21"/>
       <c r="C194" s="14"/>
@@ -5555,7 +5573,7 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="34">
         <f t="shared" si="2"/>
-        <v>48214</v>
+        <v>48092</v>
       </c>
       <c r="B195" s="21"/>
       <c r="C195" s="14"/>
@@ -5574,7 +5592,7 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="34">
         <f t="shared" si="2"/>
-        <v>48245</v>
+        <v>48122</v>
       </c>
       <c r="B196" s="21"/>
       <c r="C196" s="14"/>
@@ -5593,7 +5611,7 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="34">
         <f t="shared" si="2"/>
-        <v>48274</v>
+        <v>48153</v>
       </c>
       <c r="B197" s="21"/>
       <c r="C197" s="14"/>
@@ -5608,6 +5626,82 @@
       <c r="I197" s="9"/>
       <c r="J197" s="12"/>
       <c r="K197" s="21"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="34">
+        <f t="shared" si="2"/>
+        <v>48183</v>
+      </c>
+      <c r="B198" s="21"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="35"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H198" s="35"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="21"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="34">
+        <f t="shared" si="2"/>
+        <v>48214</v>
+      </c>
+      <c r="B199" s="21"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="35"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H199" s="35"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="21"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="34">
+        <f t="shared" si="2"/>
+        <v>48245</v>
+      </c>
+      <c r="B200" s="21"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="35"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H200" s="35"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="21"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="34">
+        <f t="shared" si="2"/>
+        <v>48274</v>
+      </c>
+      <c r="B201" s="21"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="35"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H201" s="35"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9080,17 +9174,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -9187,15 +9281,13 @@
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.3000000000000007E-2</v>
+        <v>3.3000000000000015E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="48">

--- a/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
+++ b/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
@@ -313,9 +313,6 @@
     <t>2023</t>
   </si>
   <si>
-    <t>2/20,24/2023</t>
-  </si>
-  <si>
     <t>4/19,25/2023</t>
   </si>
   <si>
@@ -353,6 +350,9 @@
   </si>
   <si>
     <t>UT(0-6-47)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K201" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K202" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1634,11 +1634,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K201"/>
+  <dimension ref="A2:K202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A84" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
+      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1807,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>54.04</v>
+        <v>53.04</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2960,7 +2960,7 @@
         <v>44652</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" s="14">
         <v>1.25</v>
@@ -2978,13 +2978,13 @@
       <c r="I66" s="9"/>
       <c r="J66" s="12"/>
       <c r="K66" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="34"/>
       <c r="B67" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="35">
@@ -3028,7 +3028,7 @@
         <v>44713</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="14">
         <v>1.25</v>
@@ -3074,7 +3074,7 @@
         <v>44774</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="14">
         <v>1.25</v>
@@ -3214,7 +3214,7 @@
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="34"/>
       <c r="B77" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="35">
@@ -3367,7 +3367,7 @@
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="34"/>
       <c r="B84" s="21" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="35"/>
@@ -3380,8 +3380,8 @@
       <c r="H84" s="35"/>
       <c r="I84" s="9"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="39" t="s">
-        <v>93</v>
+      <c r="K84" s="39">
+        <v>44977</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -3412,45 +3412,40 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="34">
-        <f t="shared" ref="A86:A156" si="1">EDATE(A85,1)</f>
-        <v>45017</v>
-      </c>
+      <c r="A86" s="34"/>
       <c r="B86" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" s="14">
-        <v>1.25</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C86" s="14"/>
       <c r="D86" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G86" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H86" s="35"/>
       <c r="I86" s="9"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="21" t="s">
-        <v>94</v>
+      <c r="K86" s="39">
+        <v>44992</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="34">
-        <f t="shared" si="1"/>
-        <v>45047</v>
+        <f>EDATE(A85,1)</f>
+        <v>45017</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C87" s="14">
         <v>1.25</v>
       </c>
       <c r="D87" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="21"/>
@@ -3461,14 +3456,14 @@
       <c r="H87" s="35"/>
       <c r="I87" s="9"/>
       <c r="J87" s="12"/>
-      <c r="K87" s="39">
-        <v>45058</v>
+      <c r="K87" s="21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="34">
-        <f t="shared" si="1"/>
-        <v>45078</v>
+        <f t="shared" ref="A88:A157" si="1">EDATE(A87,1)</f>
+        <v>45047</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>60</v>
@@ -3489,156 +3484,161 @@
       <c r="I88" s="9"/>
       <c r="J88" s="12"/>
       <c r="K88" s="39">
-        <v>45097</v>
+        <v>45058</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="34">
         <f t="shared" si="1"/>
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C89" s="14">
         <v>1.25</v>
       </c>
-      <c r="D89" s="35"/>
+      <c r="D89" s="35">
+        <v>1</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="21"/>
       <c r="G89" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H89" s="35">
-        <v>2</v>
-      </c>
+      <c r="H89" s="35"/>
       <c r="I89" s="9"/>
       <c r="J89" s="12"/>
-      <c r="K89" s="21" t="s">
-        <v>95</v>
+      <c r="K89" s="39">
+        <v>45097</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
+      <c r="A90" s="34">
+        <f t="shared" si="1"/>
+        <v>45108</v>
+      </c>
       <c r="B90" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="35">
-        <v>3.3000000000000015E-2</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C90" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D90" s="35"/>
       <c r="E90" s="9"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="35"/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H90" s="35">
+        <v>2</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="21" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="34">
-        <f>EDATE(A89,1)</f>
-        <v>45139</v>
-      </c>
+      <c r="A91" s="34"/>
       <c r="B91" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D91" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="35">
+        <v>3.3000000000000015E-2</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="21"/>
-      <c r="G91" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H91" s="35">
-        <v>1</v>
-      </c>
+      <c r="G91" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="35"/>
       <c r="I91" s="9"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="39">
-        <v>45142</v>
-      </c>
+      <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
+      <c r="A92" s="34">
+        <f>EDATE(A90,1)</f>
+        <v>45139</v>
+      </c>
       <c r="B92" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="35">
-        <v>0.5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C92" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D92" s="35"/>
       <c r="E92" s="9"/>
       <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="35"/>
+      <c r="G92" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H92" s="35">
+        <v>1</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="39"/>
+      <c r="K92" s="39">
+        <v>45142</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="34">
-        <f>EDATE(A91,1)</f>
-        <v>45170</v>
-      </c>
+      <c r="A93" s="34"/>
       <c r="B93" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C93" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D93" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="35">
+        <v>0.5</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="21"/>
-      <c r="G93" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H93" s="35">
-        <v>1</v>
-      </c>
+      <c r="G93" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="35"/>
       <c r="I93" s="9"/>
       <c r="J93" s="12"/>
-      <c r="K93" s="39">
-        <v>45163</v>
-      </c>
+      <c r="K93" s="39"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
+      <c r="A94" s="34">
+        <f>EDATE(A92,1)</f>
+        <v>45170</v>
+      </c>
       <c r="B94" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="C94" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="35"/>
       <c r="E94" s="9"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="12"/>
-      <c r="K94" s="39" t="s">
-        <v>103</v>
+      <c r="K94" s="39">
+        <v>45163</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="34"/>
       <c r="B95" s="21" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C95" s="14"/>
       <c r="D95" s="35"/>
@@ -3649,118 +3649,118 @@
         <v/>
       </c>
       <c r="H95" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="12"/>
-      <c r="K95" s="39">
-        <v>45190</v>
+      <c r="K95" s="39" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="34"/>
       <c r="B96" s="21" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="C96" s="14"/>
-      <c r="D96" s="35">
-        <v>0.84799999999999998</v>
-      </c>
+      <c r="D96" s="35"/>
       <c r="E96" s="9"/>
       <c r="F96" s="21"/>
       <c r="G96" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="35"/>
+      <c r="H96" s="35">
+        <v>1</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="12"/>
-      <c r="K96" s="39"/>
+      <c r="K96" s="39">
+        <v>45190</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="34">
-        <f>EDATE(A93,1)</f>
-        <v>45200</v>
-      </c>
+      <c r="A97" s="34"/>
       <c r="B97" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C97" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D97" s="35"/>
+        <v>105</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="35">
+        <v>0.84799999999999998</v>
+      </c>
       <c r="E97" s="9"/>
       <c r="F97" s="21"/>
-      <c r="G97" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H97" s="35">
-        <v>1</v>
-      </c>
+      <c r="G97" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="35"/>
       <c r="I97" s="9"/>
       <c r="J97" s="12"/>
-      <c r="K97" s="39">
-        <v>45204</v>
-      </c>
+      <c r="K97" s="39"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="34">
-        <f t="shared" si="1"/>
-        <v>45231</v>
+        <f>EDATE(A94,1)</f>
+        <v>45200</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C98" s="14">
         <v>1.25</v>
       </c>
-      <c r="D98" s="35">
-        <v>1</v>
-      </c>
+      <c r="D98" s="35"/>
       <c r="E98" s="9"/>
       <c r="F98" s="21"/>
       <c r="G98" s="14">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H98" s="35"/>
+      <c r="H98" s="35">
+        <v>1</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="12"/>
       <c r="K98" s="39">
-        <v>45233</v>
+        <v>45204</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
+      <c r="A99" s="34">
+        <f t="shared" si="1"/>
+        <v>45231</v>
+      </c>
       <c r="B99" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="C99" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="35">
         <v>1</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="21"/>
-      <c r="G99" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="35"/>
       <c r="I99" s="9"/>
       <c r="J99" s="12"/>
       <c r="K99" s="39">
-        <v>45247</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="34"/>
       <c r="B100" s="21" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="35">
-        <v>2E-3</v>
+        <v>1</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="21"/>
@@ -3771,45 +3771,49 @@
       <c r="H100" s="35"/>
       <c r="I100" s="9"/>
       <c r="J100" s="12"/>
-      <c r="K100" s="39"/>
+      <c r="K100" s="39">
+        <v>45247</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="34">
-        <f>EDATE(A98,1)</f>
+      <c r="A101" s="34"/>
+      <c r="B101" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="35">
+        <v>2E-3</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="35"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="39"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="34">
+        <f>EDATE(A99,1)</f>
         <v>45261</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B102" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C101" s="36">
-        <v>1.25</v>
-      </c>
-      <c r="D101" s="37">
+      <c r="C102" s="36">
+        <v>1.25</v>
+      </c>
+      <c r="D102" s="37">
         <v>0.5</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="36">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H101" s="37"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="16"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="37"/>
       <c r="E102" s="9"/>
       <c r="F102" s="16"/>
-      <c r="G102" s="36" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="36">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="37"/>
       <c r="I102" s="9"/>
@@ -3817,36 +3821,31 @@
       <c r="K102" s="16"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="34">
-        <f>EDATE(A101,1)</f>
-        <v>45292</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="35"/>
+      <c r="A103" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="16"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="37"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="35">
-        <v>1</v>
-      </c>
+      <c r="F103" s="16"/>
+      <c r="G103" s="36" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="37"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="39">
-        <v>45296</v>
-      </c>
+      <c r="J103" s="13"/>
+      <c r="K103" s="16"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="34">
-        <f t="shared" si="1"/>
-        <v>45323</v>
-      </c>
-      <c r="B104" s="21"/>
+        <f>EDATE(A102,1)</f>
+        <v>45292</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="C104" s="14"/>
       <c r="D104" s="35"/>
       <c r="E104" s="9"/>
@@ -3855,15 +3854,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H104" s="35"/>
+      <c r="H104" s="35">
+        <v>1</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="12"/>
-      <c r="K104" s="21"/>
+      <c r="K104" s="39">
+        <v>45296</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="34">
         <f t="shared" si="1"/>
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3882,7 +3885,7 @@
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="34">
         <f t="shared" si="1"/>
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3901,7 +3904,7 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="34">
         <f t="shared" si="1"/>
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3920,7 +3923,7 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="34">
         <f t="shared" si="1"/>
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3939,7 +3942,7 @@
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="34">
         <f t="shared" si="1"/>
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3958,7 +3961,7 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="34">
         <f t="shared" si="1"/>
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3977,7 +3980,7 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="34">
         <f t="shared" si="1"/>
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3996,7 +3999,7 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="34">
         <f t="shared" si="1"/>
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -4015,7 +4018,7 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="34">
         <f t="shared" si="1"/>
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -4034,7 +4037,7 @@
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="34">
         <f t="shared" si="1"/>
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -4053,7 +4056,7 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="34">
         <f t="shared" si="1"/>
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -4072,7 +4075,7 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="34">
         <f t="shared" si="1"/>
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -4091,7 +4094,7 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="34">
         <f t="shared" si="1"/>
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -4110,7 +4113,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="34">
         <f t="shared" si="1"/>
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -4129,7 +4132,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="34">
         <f t="shared" si="1"/>
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -4148,7 +4151,7 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="34">
         <f t="shared" si="1"/>
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -4167,7 +4170,7 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="34">
         <f t="shared" si="1"/>
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -4186,7 +4189,7 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="34">
         <f t="shared" si="1"/>
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -4205,7 +4208,7 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="34">
         <f t="shared" si="1"/>
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -4224,7 +4227,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="34">
         <f t="shared" si="1"/>
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -4243,7 +4246,7 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="34">
         <f t="shared" si="1"/>
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -4262,7 +4265,7 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="34">
         <f t="shared" si="1"/>
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -4281,7 +4284,7 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="34">
         <f t="shared" si="1"/>
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -4300,7 +4303,7 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="34">
         <f t="shared" si="1"/>
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -4319,7 +4322,7 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="34">
         <f t="shared" si="1"/>
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -4338,7 +4341,7 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="34">
         <f t="shared" si="1"/>
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -4357,7 +4360,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="34">
         <f t="shared" si="1"/>
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -4376,7 +4379,7 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="34">
         <f t="shared" si="1"/>
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -4395,7 +4398,7 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="34">
         <f t="shared" si="1"/>
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -4414,7 +4417,7 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="34">
         <f t="shared" si="1"/>
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B134" s="21"/>
       <c r="C134" s="14"/>
@@ -4433,7 +4436,7 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="34">
         <f t="shared" si="1"/>
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B135" s="21"/>
       <c r="C135" s="14"/>
@@ -4452,7 +4455,7 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="34">
         <f t="shared" si="1"/>
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B136" s="21"/>
       <c r="C136" s="14"/>
@@ -4471,7 +4474,7 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="34">
         <f t="shared" si="1"/>
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B137" s="21"/>
       <c r="C137" s="14"/>
@@ -4490,7 +4493,7 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="34">
         <f t="shared" si="1"/>
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B138" s="21"/>
       <c r="C138" s="14"/>
@@ -4509,7 +4512,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="34">
         <f t="shared" si="1"/>
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B139" s="21"/>
       <c r="C139" s="14"/>
@@ -4528,7 +4531,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="34">
         <f t="shared" si="1"/>
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B140" s="21"/>
       <c r="C140" s="14"/>
@@ -4547,7 +4550,7 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="34">
         <f t="shared" si="1"/>
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -4566,7 +4569,7 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="34">
         <f t="shared" si="1"/>
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B142" s="21"/>
       <c r="C142" s="14"/>
@@ -4585,7 +4588,7 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="34">
         <f t="shared" si="1"/>
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B143" s="21"/>
       <c r="C143" s="14"/>
@@ -4604,7 +4607,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="34">
         <f t="shared" si="1"/>
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B144" s="21"/>
       <c r="C144" s="14"/>
@@ -4623,7 +4626,7 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="34">
         <f t="shared" si="1"/>
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B145" s="21"/>
       <c r="C145" s="14"/>
@@ -4642,7 +4645,7 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="34">
         <f t="shared" si="1"/>
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B146" s="21"/>
       <c r="C146" s="14"/>
@@ -4661,7 +4664,7 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="34">
         <f t="shared" si="1"/>
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B147" s="21"/>
       <c r="C147" s="14"/>
@@ -4680,7 +4683,7 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="34">
         <f t="shared" si="1"/>
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B148" s="21"/>
       <c r="C148" s="14"/>
@@ -4699,7 +4702,7 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="34">
         <f t="shared" si="1"/>
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B149" s="21"/>
       <c r="C149" s="14"/>
@@ -4718,7 +4721,7 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="34">
         <f t="shared" si="1"/>
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B150" s="21"/>
       <c r="C150" s="14"/>
@@ -4737,7 +4740,7 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="34">
         <f t="shared" si="1"/>
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B151" s="21"/>
       <c r="C151" s="14"/>
@@ -4756,7 +4759,7 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="34">
         <f t="shared" si="1"/>
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B152" s="21"/>
       <c r="C152" s="14"/>
@@ -4775,7 +4778,7 @@
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="34">
         <f t="shared" si="1"/>
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B153" s="21"/>
       <c r="C153" s="14"/>
@@ -4794,7 +4797,7 @@
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="34">
         <f t="shared" si="1"/>
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B154" s="21"/>
       <c r="C154" s="14"/>
@@ -4813,7 +4816,7 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="34">
         <f t="shared" si="1"/>
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B155" s="21"/>
       <c r="C155" s="14"/>
@@ -4832,7 +4835,7 @@
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="34">
         <f t="shared" si="1"/>
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B156" s="21"/>
       <c r="C156" s="14"/>
@@ -4850,8 +4853,8 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="34">
-        <f t="shared" ref="A157:A201" si="2">EDATE(A156,1)</f>
-        <v>46935</v>
+        <f t="shared" si="1"/>
+        <v>46905</v>
       </c>
       <c r="B157" s="21"/>
       <c r="C157" s="14"/>
@@ -4869,8 +4872,8 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="34">
-        <f t="shared" si="2"/>
-        <v>46966</v>
+        <f t="shared" ref="A158:A202" si="2">EDATE(A157,1)</f>
+        <v>46935</v>
       </c>
       <c r="B158" s="21"/>
       <c r="C158" s="14"/>
@@ -4889,7 +4892,7 @@
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="34">
         <f t="shared" si="2"/>
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B159" s="21"/>
       <c r="C159" s="14"/>
@@ -4908,7 +4911,7 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="34">
         <f t="shared" si="2"/>
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B160" s="21"/>
       <c r="C160" s="14"/>
@@ -4927,7 +4930,7 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="34">
         <f t="shared" si="2"/>
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B161" s="21"/>
       <c r="C161" s="14"/>
@@ -4946,7 +4949,7 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="34">
         <f t="shared" si="2"/>
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B162" s="21"/>
       <c r="C162" s="14"/>
@@ -4965,7 +4968,7 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="34">
         <f t="shared" si="2"/>
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B163" s="21"/>
       <c r="C163" s="14"/>
@@ -4984,7 +4987,7 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="34">
         <f t="shared" si="2"/>
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B164" s="21"/>
       <c r="C164" s="14"/>
@@ -5003,7 +5006,7 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="34">
         <f t="shared" si="2"/>
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B165" s="21"/>
       <c r="C165" s="14"/>
@@ -5022,7 +5025,7 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="34">
         <f t="shared" si="2"/>
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B166" s="21"/>
       <c r="C166" s="14"/>
@@ -5041,7 +5044,7 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="34">
         <f t="shared" si="2"/>
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B167" s="21"/>
       <c r="C167" s="14"/>
@@ -5060,7 +5063,7 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="34">
         <f t="shared" si="2"/>
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B168" s="21"/>
       <c r="C168" s="14"/>
@@ -5079,7 +5082,7 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="34">
         <f t="shared" si="2"/>
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B169" s="21"/>
       <c r="C169" s="14"/>
@@ -5098,7 +5101,7 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="34">
         <f t="shared" si="2"/>
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B170" s="21"/>
       <c r="C170" s="14"/>
@@ -5117,7 +5120,7 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="34">
         <f t="shared" si="2"/>
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B171" s="21"/>
       <c r="C171" s="14"/>
@@ -5136,7 +5139,7 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="34">
         <f t="shared" si="2"/>
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B172" s="21"/>
       <c r="C172" s="14"/>
@@ -5155,7 +5158,7 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="34">
         <f t="shared" si="2"/>
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B173" s="21"/>
       <c r="C173" s="14"/>
@@ -5174,7 +5177,7 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="34">
         <f t="shared" si="2"/>
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B174" s="21"/>
       <c r="C174" s="14"/>
@@ -5193,7 +5196,7 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="34">
         <f t="shared" si="2"/>
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B175" s="21"/>
       <c r="C175" s="14"/>
@@ -5212,7 +5215,7 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="34">
         <f t="shared" si="2"/>
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B176" s="21"/>
       <c r="C176" s="14"/>
@@ -5231,7 +5234,7 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="34">
         <f t="shared" si="2"/>
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B177" s="21"/>
       <c r="C177" s="14"/>
@@ -5250,7 +5253,7 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="34">
         <f t="shared" si="2"/>
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B178" s="21"/>
       <c r="C178" s="14"/>
@@ -5269,7 +5272,7 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="34">
         <f t="shared" si="2"/>
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B179" s="21"/>
       <c r="C179" s="14"/>
@@ -5288,7 +5291,7 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="34">
         <f t="shared" si="2"/>
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B180" s="21"/>
       <c r="C180" s="14"/>
@@ -5307,7 +5310,7 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="34">
         <f t="shared" si="2"/>
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B181" s="21"/>
       <c r="C181" s="14"/>
@@ -5326,7 +5329,7 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="34">
         <f t="shared" si="2"/>
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B182" s="21"/>
       <c r="C182" s="14"/>
@@ -5345,7 +5348,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="34">
         <f t="shared" si="2"/>
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B183" s="21"/>
       <c r="C183" s="14"/>
@@ -5364,7 +5367,7 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="34">
         <f t="shared" si="2"/>
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B184" s="21"/>
       <c r="C184" s="14"/>
@@ -5383,7 +5386,7 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="34">
         <f t="shared" si="2"/>
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B185" s="21"/>
       <c r="C185" s="14"/>
@@ -5402,7 +5405,7 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="34">
         <f t="shared" si="2"/>
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B186" s="21"/>
       <c r="C186" s="14"/>
@@ -5421,7 +5424,7 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="34">
         <f t="shared" si="2"/>
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B187" s="21"/>
       <c r="C187" s="14"/>
@@ -5440,7 +5443,7 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="34">
         <f t="shared" si="2"/>
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B188" s="21"/>
       <c r="C188" s="14"/>
@@ -5459,7 +5462,7 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="34">
         <f t="shared" si="2"/>
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B189" s="21"/>
       <c r="C189" s="14"/>
@@ -5478,7 +5481,7 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="34">
         <f t="shared" si="2"/>
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B190" s="21"/>
       <c r="C190" s="14"/>
@@ -5497,7 +5500,7 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="34">
         <f t="shared" si="2"/>
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B191" s="21"/>
       <c r="C191" s="14"/>
@@ -5516,7 +5519,7 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="34">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B192" s="21"/>
       <c r="C192" s="14"/>
@@ -5535,7 +5538,7 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="34">
         <f t="shared" si="2"/>
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B193" s="21"/>
       <c r="C193" s="14"/>
@@ -5554,7 +5557,7 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="34">
         <f t="shared" si="2"/>
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B194" s="21"/>
       <c r="C194" s="14"/>
@@ -5573,7 +5576,7 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="34">
         <f t="shared" si="2"/>
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B195" s="21"/>
       <c r="C195" s="14"/>
@@ -5592,7 +5595,7 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="34">
         <f t="shared" si="2"/>
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B196" s="21"/>
       <c r="C196" s="14"/>
@@ -5611,7 +5614,7 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="34">
         <f t="shared" si="2"/>
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B197" s="21"/>
       <c r="C197" s="14"/>
@@ -5630,7 +5633,7 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="34">
         <f t="shared" si="2"/>
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B198" s="21"/>
       <c r="C198" s="14"/>
@@ -5649,7 +5652,7 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="34">
         <f t="shared" si="2"/>
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B199" s="21"/>
       <c r="C199" s="14"/>
@@ -5668,7 +5671,7 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="34">
         <f t="shared" si="2"/>
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B200" s="21"/>
       <c r="C200" s="14"/>
@@ -5687,7 +5690,7 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="34">
         <f t="shared" si="2"/>
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B201" s="21"/>
       <c r="C201" s="14"/>
@@ -5702,6 +5705,25 @@
       <c r="I201" s="9"/>
       <c r="J201" s="12"/>
       <c r="K201" s="21"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="34">
+        <f t="shared" si="2"/>
+        <v>48274</v>
+      </c>
+      <c r="B202" s="21"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="35"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H202" s="35"/>
+      <c r="I202" s="9"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
+++ b/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C469007D-2FE0-48D6-A31A-F202E6C7ACEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="107">
   <si>
     <t>PERIOD</t>
   </si>
@@ -358,7 +359,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1275,25 +1276,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K202" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K202" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1305,25 +1306,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K156" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K156" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1630,33 +1631,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <pane ySplit="3696" topLeftCell="A93" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1679,7 +1680,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1703,7 +1704,7 @@
       </c>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1725,7 +1726,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1733,7 +1734,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="33"/>
@@ -1746,7 +1747,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="53" t="s">
@@ -1763,7 +1764,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1807,7 +1808,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>53.04</v>
+        <v>54.29</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1817,12 +1818,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>78</v>
+        <v>79.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>28</v>
       </c>
@@ -1844,7 +1845,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1864,7 +1865,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1884,7 +1885,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1904,7 +1905,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1924,7 +1925,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1944,7 +1945,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1964,7 +1965,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1984,7 +1985,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -2004,7 +2005,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -2024,7 +2025,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -2044,7 +2045,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -2064,7 +2065,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2088,7 +2089,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>30</v>
       </c>
@@ -2106,7 +2107,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2126,7 +2127,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2146,7 +2147,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2166,7 +2167,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2186,7 +2187,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2206,7 +2207,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2226,7 +2227,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2246,7 +2247,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2266,7 +2267,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2286,7 +2287,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2306,7 +2307,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2326,7 +2327,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2350,7 +2351,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>31</v>
       </c>
@@ -2368,7 +2369,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2388,7 +2389,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>43862</v>
       </c>
@@ -2408,7 +2409,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>43891</v>
       </c>
@@ -2428,7 +2429,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>43922</v>
       </c>
@@ -2448,7 +2449,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43952</v>
       </c>
@@ -2468,7 +2469,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>43983</v>
       </c>
@@ -2488,7 +2489,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44013</v>
       </c>
@@ -2508,7 +2509,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44044</v>
       </c>
@@ -2528,7 +2529,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44075</v>
       </c>
@@ -2548,7 +2549,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44105</v>
       </c>
@@ -2568,7 +2569,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44136</v>
       </c>
@@ -2588,7 +2589,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44166</v>
       </c>
@@ -2612,7 +2613,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>32</v>
       </c>
@@ -2630,7 +2631,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>44197</v>
       </c>
@@ -2650,7 +2651,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44228</v>
       </c>
@@ -2670,7 +2671,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44256</v>
       </c>
@@ -2690,7 +2691,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>44287</v>
       </c>
@@ -2710,7 +2711,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44317</v>
       </c>
@@ -2730,7 +2731,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44348</v>
       </c>
@@ -2750,7 +2751,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44378</v>
       </c>
@@ -2770,7 +2771,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>44409</v>
       </c>
@@ -2790,7 +2791,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>44440</v>
       </c>
@@ -2810,7 +2811,7 @@
       <c r="J58" s="13"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44470</v>
       </c>
@@ -2830,7 +2831,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44501</v>
       </c>
@@ -2850,7 +2851,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44531</v>
       </c>
@@ -2874,7 +2875,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
         <v>33</v>
       </c>
@@ -2892,7 +2893,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2912,7 +2913,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="34">
         <f>EDATE(A63,1)</f>
         <v>44593</v>
@@ -2933,7 +2934,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="34">
         <f>EDATE(A64,1)</f>
         <v>44621</v>
@@ -2954,7 +2955,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="34">
         <f t="shared" ref="A66:A73" si="0">EDATE(A65,1)</f>
         <v>44652</v>
@@ -2981,7 +2982,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="34"/>
       <c r="B67" s="21" t="s">
         <v>100</v>
@@ -3001,7 +3002,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="39"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="34">
         <f>EDATE(A66,1)</f>
         <v>44682</v>
@@ -3022,7 +3023,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="34">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -3047,7 +3048,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="34">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -3068,7 +3069,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="34">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3093,7 +3094,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="34">
         <f t="shared" si="0"/>
         <v>44805</v>
@@ -3114,7 +3115,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="34">
         <f t="shared" si="0"/>
         <v>44835</v>
@@ -3141,7 +3142,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="34"/>
       <c r="B74" s="16" t="s">
         <v>58</v>
@@ -3163,7 +3164,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="34">
         <v>44866</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="34"/>
       <c r="B76" s="16" t="s">
         <v>58</v>
@@ -3211,7 +3212,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="34"/>
       <c r="B77" s="21" t="s">
         <v>95</v>
@@ -3231,7 +3232,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="39"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="34">
         <v>44896</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="34"/>
       <c r="B79" s="21" t="s">
         <v>58</v>
@@ -3279,7 +3280,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
         <v>92</v>
       </c>
@@ -3297,7 +3298,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="34">
         <v>44927</v>
       </c>
@@ -3317,7 +3318,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="34">
         <f>EDATE(A81,1)</f>
         <v>44958</v>
@@ -3344,7 +3345,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="34"/>
       <c r="B83" s="21" t="s">
         <v>35</v>
@@ -3364,7 +3365,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="34"/>
       <c r="B84" s="21" t="s">
         <v>35</v>
@@ -3384,7 +3385,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="34">
         <f>EDATE(A82,1)</f>
         <v>44986</v>
@@ -3411,7 +3412,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="34"/>
       <c r="B86" s="21" t="s">
         <v>106</v>
@@ -3433,7 +3434,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="34">
         <f>EDATE(A85,1)</f>
         <v>45017</v>
@@ -3460,7 +3461,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="34">
         <f t="shared" ref="A88:A157" si="1">EDATE(A87,1)</f>
         <v>45047</v>
@@ -3487,7 +3488,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="34">
         <f t="shared" si="1"/>
         <v>45078</v>
@@ -3514,7 +3515,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="34">
         <f t="shared" si="1"/>
         <v>45108</v>
@@ -3541,7 +3542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="34"/>
       <c r="B91" s="21" t="s">
         <v>77</v>
@@ -3561,7 +3562,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="34">
         <f>EDATE(A90,1)</f>
         <v>45139</v>
@@ -3588,7 +3589,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="34"/>
       <c r="B93" s="21" t="s">
         <v>76</v>
@@ -3608,7 +3609,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="39"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="34">
         <f>EDATE(A92,1)</f>
         <v>45170</v>
@@ -3635,7 +3636,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="34"/>
       <c r="B95" s="21" t="s">
         <v>101</v>
@@ -3657,7 +3658,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="34"/>
       <c r="B96" s="21" t="s">
         <v>59</v>
@@ -3679,7 +3680,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="34"/>
       <c r="B97" s="21" t="s">
         <v>105</v>
@@ -3699,7 +3700,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="39"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="34">
         <f>EDATE(A94,1)</f>
         <v>45200</v>
@@ -3726,7 +3727,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="34">
         <f t="shared" si="1"/>
         <v>45231</v>
@@ -3753,7 +3754,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="34"/>
       <c r="B100" s="21" t="s">
         <v>58</v>
@@ -3775,7 +3776,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="34"/>
       <c r="B101" s="21" t="s">
         <v>104</v>
@@ -3795,7 +3796,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="39"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="34">
         <f>EDATE(A99,1)</f>
         <v>45261</v>
@@ -3820,7 +3821,7 @@
       <c r="J102" s="13"/>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="31" t="s">
         <v>103</v>
       </c>
@@ -3838,7 +3839,7 @@
       <c r="J103" s="13"/>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="34">
         <f>EDATE(A102,1)</f>
         <v>45292</v>
@@ -3846,13 +3847,15 @@
       <c r="B104" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C104" s="14"/>
+      <c r="C104" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="35"/>
       <c r="E104" s="9"/>
       <c r="F104" s="21"/>
-      <c r="G104" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="35">
         <v>1</v>
@@ -3863,12 +3866,14 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="34">
         <f t="shared" si="1"/>
         <v>45323</v>
       </c>
-      <c r="B105" s="21"/>
+      <c r="B105" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="C105" s="14"/>
       <c r="D105" s="35"/>
       <c r="E105" s="9"/>
@@ -3880,9 +3885,11 @@
       <c r="H105" s="35"/>
       <c r="I105" s="9"/>
       <c r="J105" s="12"/>
-      <c r="K105" s="21"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="39">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="34">
         <f t="shared" si="1"/>
         <v>45352</v>
@@ -3901,7 +3908,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="34">
         <f t="shared" si="1"/>
         <v>45383</v>
@@ -3920,7 +3927,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="34">
         <f t="shared" si="1"/>
         <v>45413</v>
@@ -3939,7 +3946,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="34">
         <f t="shared" si="1"/>
         <v>45444</v>
@@ -3958,7 +3965,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="34">
         <f t="shared" si="1"/>
         <v>45474</v>
@@ -3977,7 +3984,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="34">
         <f t="shared" si="1"/>
         <v>45505</v>
@@ -3996,7 +4003,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="34">
         <f t="shared" si="1"/>
         <v>45536</v>
@@ -4015,7 +4022,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="34">
         <f t="shared" si="1"/>
         <v>45566</v>
@@ -4034,7 +4041,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="34">
         <f t="shared" si="1"/>
         <v>45597</v>
@@ -4053,7 +4060,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="34">
         <f t="shared" si="1"/>
         <v>45627</v>
@@ -4072,7 +4079,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="34">
         <f t="shared" si="1"/>
         <v>45658</v>
@@ -4091,7 +4098,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="34">
         <f t="shared" si="1"/>
         <v>45689</v>
@@ -4110,7 +4117,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="34">
         <f t="shared" si="1"/>
         <v>45717</v>
@@ -4129,7 +4136,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="34">
         <f t="shared" si="1"/>
         <v>45748</v>
@@ -4148,7 +4155,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="34">
         <f t="shared" si="1"/>
         <v>45778</v>
@@ -4167,7 +4174,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="34">
         <f t="shared" si="1"/>
         <v>45809</v>
@@ -4186,7 +4193,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="34">
         <f t="shared" si="1"/>
         <v>45839</v>
@@ -4205,7 +4212,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="34">
         <f t="shared" si="1"/>
         <v>45870</v>
@@ -4224,7 +4231,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="34">
         <f t="shared" si="1"/>
         <v>45901</v>
@@ -4243,7 +4250,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="34">
         <f t="shared" si="1"/>
         <v>45931</v>
@@ -4262,7 +4269,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="34">
         <f t="shared" si="1"/>
         <v>45962</v>
@@ -4281,7 +4288,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="34">
         <f t="shared" si="1"/>
         <v>45992</v>
@@ -4300,7 +4307,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="34">
         <f t="shared" si="1"/>
         <v>46023</v>
@@ -4319,7 +4326,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="34">
         <f t="shared" si="1"/>
         <v>46054</v>
@@ -4338,7 +4345,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="34">
         <f t="shared" si="1"/>
         <v>46082</v>
@@ -4357,7 +4364,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="34">
         <f t="shared" si="1"/>
         <v>46113</v>
@@ -4376,7 +4383,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="34">
         <f t="shared" si="1"/>
         <v>46143</v>
@@ -4395,7 +4402,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="34">
         <f t="shared" si="1"/>
         <v>46174</v>
@@ -4414,7 +4421,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="21"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="34">
         <f t="shared" si="1"/>
         <v>46204</v>
@@ -4433,7 +4440,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="34">
         <f t="shared" si="1"/>
         <v>46235</v>
@@ -4452,7 +4459,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="21"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="34">
         <f t="shared" si="1"/>
         <v>46266</v>
@@ -4471,7 +4478,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="21"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="34">
         <f t="shared" si="1"/>
         <v>46296</v>
@@ -4490,7 +4497,7 @@
       <c r="J137" s="12"/>
       <c r="K137" s="21"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="34">
         <f t="shared" si="1"/>
         <v>46327</v>
@@ -4509,7 +4516,7 @@
       <c r="J138" s="12"/>
       <c r="K138" s="21"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="34">
         <f t="shared" si="1"/>
         <v>46357</v>
@@ -4528,7 +4535,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="21"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="34">
         <f t="shared" si="1"/>
         <v>46388</v>
@@ -4547,7 +4554,7 @@
       <c r="J140" s="12"/>
       <c r="K140" s="21"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="34">
         <f t="shared" si="1"/>
         <v>46419</v>
@@ -4566,7 +4573,7 @@
       <c r="J141" s="12"/>
       <c r="K141" s="21"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="34">
         <f t="shared" si="1"/>
         <v>46447</v>
@@ -4585,7 +4592,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="21"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="34">
         <f t="shared" si="1"/>
         <v>46478</v>
@@ -4604,7 +4611,7 @@
       <c r="J143" s="12"/>
       <c r="K143" s="21"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="34">
         <f t="shared" si="1"/>
         <v>46508</v>
@@ -4623,7 +4630,7 @@
       <c r="J144" s="12"/>
       <c r="K144" s="21"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="34">
         <f t="shared" si="1"/>
         <v>46539</v>
@@ -4642,7 +4649,7 @@
       <c r="J145" s="12"/>
       <c r="K145" s="21"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="34">
         <f t="shared" si="1"/>
         <v>46569</v>
@@ -4661,7 +4668,7 @@
       <c r="J146" s="12"/>
       <c r="K146" s="21"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="34">
         <f t="shared" si="1"/>
         <v>46600</v>
@@ -4680,7 +4687,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="21"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="34">
         <f t="shared" si="1"/>
         <v>46631</v>
@@ -4699,7 +4706,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="21"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="34">
         <f t="shared" si="1"/>
         <v>46661</v>
@@ -4718,7 +4725,7 @@
       <c r="J149" s="12"/>
       <c r="K149" s="21"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="34">
         <f t="shared" si="1"/>
         <v>46692</v>
@@ -4737,7 +4744,7 @@
       <c r="J150" s="12"/>
       <c r="K150" s="21"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="34">
         <f t="shared" si="1"/>
         <v>46722</v>
@@ -4756,7 +4763,7 @@
       <c r="J151" s="12"/>
       <c r="K151" s="21"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="34">
         <f t="shared" si="1"/>
         <v>46753</v>
@@ -4775,7 +4782,7 @@
       <c r="J152" s="12"/>
       <c r="K152" s="21"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="34">
         <f t="shared" si="1"/>
         <v>46784</v>
@@ -4794,7 +4801,7 @@
       <c r="J153" s="12"/>
       <c r="K153" s="21"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="34">
         <f t="shared" si="1"/>
         <v>46813</v>
@@ -4813,7 +4820,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="21"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="34">
         <f t="shared" si="1"/>
         <v>46844</v>
@@ -4832,7 +4839,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="21"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="34">
         <f t="shared" si="1"/>
         <v>46874</v>
@@ -4851,7 +4858,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="21"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="34">
         <f t="shared" si="1"/>
         <v>46905</v>
@@ -4870,7 +4877,7 @@
       <c r="J157" s="12"/>
       <c r="K157" s="21"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="34">
         <f t="shared" ref="A158:A202" si="2">EDATE(A157,1)</f>
         <v>46935</v>
@@ -4889,7 +4896,7 @@
       <c r="J158" s="12"/>
       <c r="K158" s="21"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="34">
         <f t="shared" si="2"/>
         <v>46966</v>
@@ -4908,7 +4915,7 @@
       <c r="J159" s="12"/>
       <c r="K159" s="21"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="34">
         <f t="shared" si="2"/>
         <v>46997</v>
@@ -4927,7 +4934,7 @@
       <c r="J160" s="12"/>
       <c r="K160" s="21"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="34">
         <f t="shared" si="2"/>
         <v>47027</v>
@@ -4946,7 +4953,7 @@
       <c r="J161" s="12"/>
       <c r="K161" s="21"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="34">
         <f t="shared" si="2"/>
         <v>47058</v>
@@ -4965,7 +4972,7 @@
       <c r="J162" s="12"/>
       <c r="K162" s="21"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="34">
         <f t="shared" si="2"/>
         <v>47088</v>
@@ -4984,7 +4991,7 @@
       <c r="J163" s="12"/>
       <c r="K163" s="21"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="34">
         <f t="shared" si="2"/>
         <v>47119</v>
@@ -5003,7 +5010,7 @@
       <c r="J164" s="12"/>
       <c r="K164" s="21"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="34">
         <f t="shared" si="2"/>
         <v>47150</v>
@@ -5022,7 +5029,7 @@
       <c r="J165" s="12"/>
       <c r="K165" s="21"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="34">
         <f t="shared" si="2"/>
         <v>47178</v>
@@ -5041,7 +5048,7 @@
       <c r="J166" s="12"/>
       <c r="K166" s="21"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="34">
         <f t="shared" si="2"/>
         <v>47209</v>
@@ -5060,7 +5067,7 @@
       <c r="J167" s="12"/>
       <c r="K167" s="21"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="34">
         <f t="shared" si="2"/>
         <v>47239</v>
@@ -5079,7 +5086,7 @@
       <c r="J168" s="12"/>
       <c r="K168" s="21"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="34">
         <f t="shared" si="2"/>
         <v>47270</v>
@@ -5098,7 +5105,7 @@
       <c r="J169" s="12"/>
       <c r="K169" s="21"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="34">
         <f t="shared" si="2"/>
         <v>47300</v>
@@ -5117,7 +5124,7 @@
       <c r="J170" s="12"/>
       <c r="K170" s="21"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="34">
         <f t="shared" si="2"/>
         <v>47331</v>
@@ -5136,7 +5143,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="21"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="34">
         <f t="shared" si="2"/>
         <v>47362</v>
@@ -5155,7 +5162,7 @@
       <c r="J172" s="12"/>
       <c r="K172" s="21"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="34">
         <f t="shared" si="2"/>
         <v>47392</v>
@@ -5174,7 +5181,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="21"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="34">
         <f t="shared" si="2"/>
         <v>47423</v>
@@ -5193,7 +5200,7 @@
       <c r="J174" s="12"/>
       <c r="K174" s="21"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="34">
         <f t="shared" si="2"/>
         <v>47453</v>
@@ -5212,7 +5219,7 @@
       <c r="J175" s="12"/>
       <c r="K175" s="21"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="34">
         <f t="shared" si="2"/>
         <v>47484</v>
@@ -5231,7 +5238,7 @@
       <c r="J176" s="12"/>
       <c r="K176" s="21"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="34">
         <f t="shared" si="2"/>
         <v>47515</v>
@@ -5250,7 +5257,7 @@
       <c r="J177" s="12"/>
       <c r="K177" s="21"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="34">
         <f t="shared" si="2"/>
         <v>47543</v>
@@ -5269,7 +5276,7 @@
       <c r="J178" s="12"/>
       <c r="K178" s="21"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="34">
         <f t="shared" si="2"/>
         <v>47574</v>
@@ -5288,7 +5295,7 @@
       <c r="J179" s="12"/>
       <c r="K179" s="21"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="34">
         <f t="shared" si="2"/>
         <v>47604</v>
@@ -5307,7 +5314,7 @@
       <c r="J180" s="12"/>
       <c r="K180" s="21"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="34">
         <f t="shared" si="2"/>
         <v>47635</v>
@@ -5326,7 +5333,7 @@
       <c r="J181" s="12"/>
       <c r="K181" s="21"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="34">
         <f t="shared" si="2"/>
         <v>47665</v>
@@ -5345,7 +5352,7 @@
       <c r="J182" s="12"/>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="34">
         <f t="shared" si="2"/>
         <v>47696</v>
@@ -5364,7 +5371,7 @@
       <c r="J183" s="12"/>
       <c r="K183" s="21"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="34">
         <f t="shared" si="2"/>
         <v>47727</v>
@@ -5383,7 +5390,7 @@
       <c r="J184" s="12"/>
       <c r="K184" s="21"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="34">
         <f t="shared" si="2"/>
         <v>47757</v>
@@ -5402,7 +5409,7 @@
       <c r="J185" s="12"/>
       <c r="K185" s="21"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="34">
         <f t="shared" si="2"/>
         <v>47788</v>
@@ -5421,7 +5428,7 @@
       <c r="J186" s="12"/>
       <c r="K186" s="21"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="34">
         <f t="shared" si="2"/>
         <v>47818</v>
@@ -5440,7 +5447,7 @@
       <c r="J187" s="12"/>
       <c r="K187" s="21"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="34">
         <f t="shared" si="2"/>
         <v>47849</v>
@@ -5459,7 +5466,7 @@
       <c r="J188" s="12"/>
       <c r="K188" s="21"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="34">
         <f t="shared" si="2"/>
         <v>47880</v>
@@ -5478,7 +5485,7 @@
       <c r="J189" s="12"/>
       <c r="K189" s="21"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="34">
         <f t="shared" si="2"/>
         <v>47908</v>
@@ -5497,7 +5504,7 @@
       <c r="J190" s="12"/>
       <c r="K190" s="21"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="34">
         <f t="shared" si="2"/>
         <v>47939</v>
@@ -5516,7 +5523,7 @@
       <c r="J191" s="12"/>
       <c r="K191" s="21"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="34">
         <f t="shared" si="2"/>
         <v>47969</v>
@@ -5535,7 +5542,7 @@
       <c r="J192" s="12"/>
       <c r="K192" s="21"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="34">
         <f t="shared" si="2"/>
         <v>48000</v>
@@ -5554,7 +5561,7 @@
       <c r="J193" s="12"/>
       <c r="K193" s="21"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="34">
         <f t="shared" si="2"/>
         <v>48030</v>
@@ -5573,7 +5580,7 @@
       <c r="J194" s="12"/>
       <c r="K194" s="21"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="34">
         <f t="shared" si="2"/>
         <v>48061</v>
@@ -5592,7 +5599,7 @@
       <c r="J195" s="12"/>
       <c r="K195" s="21"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="34">
         <f t="shared" si="2"/>
         <v>48092</v>
@@ -5611,7 +5618,7 @@
       <c r="J196" s="12"/>
       <c r="K196" s="21"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="34">
         <f t="shared" si="2"/>
         <v>48122</v>
@@ -5630,7 +5637,7 @@
       <c r="J197" s="12"/>
       <c r="K197" s="21"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="34">
         <f t="shared" si="2"/>
         <v>48153</v>
@@ -5649,7 +5656,7 @@
       <c r="J198" s="12"/>
       <c r="K198" s="21"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="34">
         <f t="shared" si="2"/>
         <v>48183</v>
@@ -5668,7 +5675,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="21"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="34">
         <f t="shared" si="2"/>
         <v>48214</v>
@@ -5687,7 +5694,7 @@
       <c r="J200" s="12"/>
       <c r="K200" s="21"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="34">
         <f t="shared" si="2"/>
         <v>48245</v>
@@ -5706,7 +5713,7 @@
       <c r="J201" s="12"/>
       <c r="K201" s="21"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="34">
         <f t="shared" si="2"/>
         <v>48274</v>
@@ -5740,10 +5747,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5767,34 +5774,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K156"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3870" topLeftCell="A122" activePane="bottomLeft"/>
+      <pane ySplit="3876" topLeftCell="A122" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -5817,7 +5824,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -5841,7 +5848,7 @@
       </c>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -5863,7 +5870,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -5871,7 +5878,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="33"/>
@@ -5884,7 +5891,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="53" t="s">
@@ -5901,7 +5908,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5936,7 +5943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -5960,7 +5967,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>54</v>
       </c>
@@ -5982,7 +5989,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>41913</v>
       </c>
@@ -6002,7 +6009,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <f>EDATE(A11,1)</f>
         <v>41944</v>
@@ -6023,7 +6030,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <f t="shared" ref="A13:A64" si="0">EDATE(A12,1)</f>
         <v>41974</v>
@@ -6044,7 +6051,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>55</v>
       </c>
@@ -6062,7 +6069,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <f>EDATE(A13,1)</f>
         <v>42005</v>
@@ -6083,7 +6090,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>42036</v>
@@ -6104,7 +6111,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>42064</v>
@@ -6125,7 +6132,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>42095</v>
@@ -6150,7 +6157,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>42125</v>
@@ -6171,7 +6178,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>42156</v>
@@ -6198,7 +6205,7 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>42186</v>
@@ -6225,7 +6232,7 @@
         <v>42200</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>42217</v>
@@ -6252,7 +6259,7 @@
         <v>42222</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
         <v>42248</v>
@@ -6279,7 +6286,7 @@
         <v>42275</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <f t="shared" si="0"/>
         <v>42278</v>
@@ -6306,7 +6313,7 @@
         <v>42299</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>42309</v>
@@ -6333,7 +6340,7 @@
         <v>42313</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="12" t="s">
         <v>35</v>
@@ -6353,7 +6360,7 @@
         <v>42325</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <f>EDATE(A25,1)</f>
         <v>42339</v>
@@ -6380,7 +6387,7 @@
         <v>42356</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>56</v>
       </c>
@@ -6398,7 +6405,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <f>EDATE(A27,1)</f>
         <v>42370</v>
@@ -6423,7 +6430,7 @@
         <v>42374</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>42401</v>
@@ -6448,7 +6455,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
       <c r="B31" s="12" t="s">
         <v>35</v>
@@ -6468,7 +6475,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="12" t="s">
         <v>59</v>
@@ -6490,7 +6497,7 @@
         <v>42422</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33" s="12" t="s">
         <v>59</v>
@@ -6512,7 +6519,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <f>EDATE(A30,1)</f>
         <v>42430</v>
@@ -6539,7 +6546,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35" s="12" t="s">
         <v>58</v>
@@ -6561,7 +6568,7 @@
         <v>42458</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>60</v>
@@ -6583,7 +6590,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <f>EDATE(A34,1)</f>
         <v>42461</v>
@@ -6610,7 +6617,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <f t="shared" si="0"/>
         <v>42491</v>
@@ -6633,7 +6640,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
         <v>42522</v>
@@ -6658,7 +6665,7 @@
         <v>42524</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
         <v>42552</v>
@@ -6679,7 +6686,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
         <v>42583</v>
@@ -6706,7 +6713,7 @@
         <v>42591</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
         <v>42614</v>
@@ -6731,7 +6738,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <f t="shared" si="0"/>
         <v>42644</v>
@@ -6758,7 +6765,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <f>EDATE(A43,1)</f>
         <v>42675</v>
@@ -6785,7 +6792,7 @@
         <v>42670</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="12" t="s">
         <v>62</v>
@@ -6807,7 +6814,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <f>EDATE(A44,1)</f>
         <v>42705</v>
@@ -6834,7 +6841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="21" t="s">
         <v>66</v>
@@ -6854,7 +6861,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>57</v>
       </c>
@@ -6872,7 +6879,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <f>EDATE(A46,1)</f>
         <v>42736</v>
@@ -6897,7 +6904,7 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="12" t="s">
         <v>59</v>
@@ -6919,7 +6926,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <f>EDATE(A49,1)</f>
         <v>42767</v>
@@ -6940,7 +6947,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <f t="shared" si="0"/>
         <v>42795</v>
@@ -6967,7 +6974,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="12" t="s">
         <v>60</v>
@@ -6989,7 +6996,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="12" t="s">
         <v>59</v>
@@ -7011,7 +7018,7 @@
         <v>42821</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <f>EDATE(A52,1)</f>
         <v>42826</v>
@@ -7038,7 +7045,7 @@
         <v>42850</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -7065,7 +7072,7 @@
         <v>42874</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <f>EDATE(A56,1)</f>
         <v>42887</v>
@@ -7092,7 +7099,7 @@
         <v>42922</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="12" t="s">
         <v>60</v>
@@ -7114,7 +7121,7 @@
         <v>42937</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <f>EDATE(A57,1)</f>
         <v>42917</v>
@@ -7135,7 +7142,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <f t="shared" si="0"/>
         <v>42948</v>
@@ -7162,7 +7169,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="12" t="s">
         <v>59</v>
@@ -7184,7 +7191,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <f>EDATE(A60,1)</f>
         <v>42979</v>
@@ -7211,7 +7218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -7232,7 +7239,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -7257,7 +7264,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <f>EDATE(A64,1)</f>
         <v>43070</v>
@@ -7284,7 +7291,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="13" t="s">
         <v>59</v>
@@ -7306,7 +7313,7 @@
         <v>43097</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="13" t="s">
         <v>59</v>
@@ -7328,7 +7335,7 @@
         <v>43062</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="13" t="s">
         <v>60</v>
@@ -7350,7 +7357,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
         <v>28</v>
       </c>
@@ -7368,7 +7375,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>43101</v>
       </c>
@@ -7392,7 +7399,7 @@
         <v>43119</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>43132</v>
       </c>
@@ -7416,7 +7423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24"/>
       <c r="B72" s="13" t="s">
         <v>59</v>
@@ -7438,7 +7445,7 @@
         <v>43153</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <v>43160</v>
       </c>
@@ -7460,7 +7467,7 @@
         <v>43185</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>43191</v>
       </c>
@@ -7482,7 +7489,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="12" t="s">
         <v>59</v>
@@ -7504,7 +7511,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>43221</v>
       </c>
@@ -7528,7 +7535,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="12" t="s">
         <v>59</v>
@@ -7550,7 +7557,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="31"/>
       <c r="B78" s="12" t="s">
         <v>73</v>
@@ -7570,7 +7577,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>43252</v>
       </c>
@@ -7594,7 +7601,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="34"/>
       <c r="B80" s="21" t="s">
         <v>59</v>
@@ -7616,7 +7623,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="34"/>
       <c r="B81" s="21" t="s">
         <v>74</v>
@@ -7636,7 +7643,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="39"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="34">
         <v>43313</v>
       </c>
@@ -7660,7 +7667,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="34">
         <v>43344</v>
       </c>
@@ -7682,7 +7689,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="39"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="34">
         <v>43374</v>
       </c>
@@ -7706,7 +7713,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="34"/>
       <c r="B85" s="21" t="s">
         <v>77</v>
@@ -7726,7 +7733,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="34">
         <v>43405</v>
       </c>
@@ -7750,7 +7757,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="34"/>
       <c r="B87" s="21" t="s">
         <v>76</v>
@@ -7770,7 +7777,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="34">
         <v>43435</v>
       </c>
@@ -7792,7 +7799,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="34"/>
       <c r="B89" s="21" t="s">
         <v>78</v>
@@ -7812,7 +7819,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="31" t="s">
         <v>30</v>
       </c>
@@ -7830,7 +7837,7 @@
       <c r="J90" s="13"/>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="34">
         <v>43497</v>
       </c>
@@ -7852,7 +7859,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="34"/>
       <c r="B92" s="21" t="s">
         <v>59</v>
@@ -7874,7 +7881,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="34">
         <v>43525</v>
       </c>
@@ -7896,7 +7903,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="34">
         <v>43556</v>
       </c>
@@ -7920,7 +7927,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="34"/>
       <c r="B95" s="21" t="s">
         <v>59</v>
@@ -7942,7 +7949,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="34">
         <v>43586</v>
       </c>
@@ -7962,7 +7969,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="34">
         <v>43647</v>
       </c>
@@ -7986,7 +7993,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="34">
         <v>43678</v>
       </c>
@@ -8010,7 +8017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="34"/>
       <c r="B99" s="21" t="s">
         <v>62</v>
@@ -8032,7 +8039,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="34"/>
       <c r="B100" s="21" t="s">
         <v>60</v>
@@ -8054,7 +8061,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="34">
         <v>43709</v>
       </c>
@@ -8078,7 +8085,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="34">
         <v>43739</v>
       </c>
@@ -8102,7 +8109,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="34"/>
       <c r="B103" s="21" t="s">
         <v>60</v>
@@ -8124,7 +8131,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="34">
         <v>43800</v>
       </c>
@@ -8148,7 +8155,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="34"/>
       <c r="B105" s="21" t="s">
         <v>59</v>
@@ -8168,7 +8175,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
         <v>31</v>
       </c>
@@ -8186,7 +8193,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="34">
         <v>43831</v>
       </c>
@@ -8208,7 +8215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="34"/>
       <c r="B108" s="21" t="s">
         <v>59</v>
@@ -8230,7 +8237,7 @@
         <v>43848</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="34"/>
       <c r="B109" s="21" t="s">
         <v>83</v>
@@ -8250,7 +8257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="34">
         <v>43862</v>
       </c>
@@ -8272,7 +8279,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="34">
         <v>43891</v>
       </c>
@@ -8294,7 +8301,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="34">
         <v>44013</v>
       </c>
@@ -8316,7 +8323,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="34"/>
       <c r="B113" s="21" t="s">
         <v>60</v>
@@ -8338,7 +8345,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="34"/>
       <c r="B114" s="21" t="s">
         <v>60</v>
@@ -8358,7 +8365,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="34">
         <v>44044</v>
       </c>
@@ -8382,7 +8389,7 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="34"/>
       <c r="B116" s="21" t="s">
         <v>59</v>
@@ -8404,7 +8411,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="34">
         <v>44075</v>
       </c>
@@ -8428,7 +8435,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="34"/>
       <c r="B118" s="21" t="s">
         <v>59</v>
@@ -8450,7 +8457,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="34"/>
       <c r="B119" s="21" t="s">
         <v>60</v>
@@ -8472,7 +8479,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="34"/>
       <c r="B120" s="21" t="s">
         <v>59</v>
@@ -8494,7 +8501,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="34">
         <v>44136</v>
       </c>
@@ -8516,7 +8523,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="34"/>
       <c r="B122" s="21" t="s">
         <v>59</v>
@@ -8538,7 +8545,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="31" t="s">
         <v>32</v>
       </c>
@@ -8556,7 +8563,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="34">
         <v>44197</v>
       </c>
@@ -8580,7 +8587,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="52"/>
       <c r="B125" s="16" t="s">
         <v>59</v>
@@ -8602,7 +8609,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="34">
         <v>44287</v>
       </c>
@@ -8624,7 +8631,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="34">
         <v>44317</v>
       </c>
@@ -8648,7 +8655,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="34">
         <v>44348</v>
       </c>
@@ -8672,7 +8679,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="34">
         <v>44378</v>
       </c>
@@ -8696,7 +8703,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="34">
         <v>44409</v>
       </c>
@@ -8720,7 +8727,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="34">
         <v>44470</v>
       </c>
@@ -8744,7 +8751,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="34"/>
       <c r="B132" s="21" t="s">
         <v>58</v>
@@ -8766,7 +8773,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="34">
         <v>44501</v>
       </c>
@@ -8790,7 +8797,7 @@
         <v>44525</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="31" t="s">
         <v>33</v>
       </c>
@@ -8808,7 +8815,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="34">
         <v>44593</v>
       </c>
@@ -8830,7 +8837,7 @@
         <v>44600</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="34"/>
       <c r="B136" s="21" t="s">
         <v>58</v>
@@ -8852,7 +8859,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="34"/>
       <c r="B137" s="21" t="s">
         <v>88</v>
@@ -8874,7 +8881,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="34"/>
       <c r="B138" s="21" t="s">
         <v>88</v>
@@ -8896,7 +8903,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="34"/>
       <c r="B139" s="21" t="s">
         <v>89</v>
@@ -8918,7 +8925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="34"/>
       <c r="B140" s="21" t="s">
         <v>71</v>
@@ -8938,7 +8945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="34"/>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -8954,7 +8961,7 @@
       <c r="J141" s="12"/>
       <c r="K141" s="21"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="34"/>
       <c r="B142" s="21"/>
       <c r="C142" s="14"/>
@@ -8970,7 +8977,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="21"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="34"/>
       <c r="B143" s="21"/>
       <c r="C143" s="14"/>
@@ -8986,7 +8993,7 @@
       <c r="J143" s="12"/>
       <c r="K143" s="21"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="34"/>
       <c r="B144" s="21"/>
       <c r="C144" s="14"/>
@@ -9002,7 +9009,7 @@
       <c r="J144" s="12"/>
       <c r="K144" s="21"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="34"/>
       <c r="B145" s="21"/>
       <c r="C145" s="14"/>
@@ -9018,7 +9025,7 @@
       <c r="J145" s="12"/>
       <c r="K145" s="21"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="34"/>
       <c r="B146" s="21"/>
       <c r="C146" s="14"/>
@@ -9034,7 +9041,7 @@
       <c r="J146" s="12"/>
       <c r="K146" s="21"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="34"/>
       <c r="B147" s="21"/>
       <c r="C147" s="14"/>
@@ -9050,7 +9057,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="21"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="34"/>
       <c r="B148" s="21"/>
       <c r="C148" s="14"/>
@@ -9066,7 +9073,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="21"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="34"/>
       <c r="B149" s="21"/>
       <c r="C149" s="14"/>
@@ -9082,7 +9089,7 @@
       <c r="J149" s="12"/>
       <c r="K149" s="21"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="34"/>
       <c r="B150" s="21"/>
       <c r="C150" s="14"/>
@@ -9098,7 +9105,7 @@
       <c r="J150" s="12"/>
       <c r="K150" s="21"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="34"/>
       <c r="B151" s="21"/>
       <c r="C151" s="14"/>
@@ -9114,7 +9121,7 @@
       <c r="J151" s="12"/>
       <c r="K151" s="21"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="34"/>
       <c r="B152" s="21"/>
       <c r="C152" s="14"/>
@@ -9130,7 +9137,7 @@
       <c r="J152" s="12"/>
       <c r="K152" s="21"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="34"/>
       <c r="B153" s="21"/>
       <c r="C153" s="14"/>
@@ -9146,7 +9153,7 @@
       <c r="J153" s="12"/>
       <c r="K153" s="21"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="34"/>
       <c r="B154" s="21"/>
       <c r="C154" s="14"/>
@@ -9162,7 +9169,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="21"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="34"/>
       <c r="B155" s="21"/>
       <c r="C155" s="14"/>
@@ -9178,7 +9185,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="21"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="52"/>
       <c r="B156" s="16"/>
       <c r="C156" s="36"/>
@@ -9196,23 +9203,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9236,28 +9243,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="44" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="44" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>44</v>
       </c>
@@ -9270,7 +9277,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>36</v>
       </c>
@@ -9299,7 +9306,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="D3" s="12"/>
@@ -9321,17 +9328,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="42"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="43" t="s">
         <v>40</v>
       </c>
@@ -9352,7 +9359,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="44">
         <v>1</v>
       </c>
@@ -9379,7 +9386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="44">
         <v>2</v>
       </c>
@@ -9405,7 +9412,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="44">
         <v>3</v>
       </c>
@@ -9431,7 +9438,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="44">
         <v>4</v>
       </c>
@@ -9457,7 +9464,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="44">
         <v>5</v>
       </c>
@@ -9483,7 +9490,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="44">
         <v>6</v>
       </c>
@@ -9509,7 +9516,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="44">
         <v>7</v>
       </c>
@@ -9535,7 +9542,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="44">
         <v>8</v>
       </c>
@@ -9561,7 +9568,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="44">
         <v>9</v>
       </c>
@@ -9581,7 +9588,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="44">
         <v>10</v>
       </c>
@@ -9601,7 +9608,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="44">
         <v>11</v>
       </c>
@@ -9621,7 +9628,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="44">
         <v>12</v>
       </c>
@@ -9642,7 +9649,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="44">
         <v>13</v>
       </c>
@@ -9663,7 +9670,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="44">
         <v>14</v>
       </c>
@@ -9684,7 +9691,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="44">
         <v>15</v>
       </c>
@@ -9705,7 +9712,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="44">
         <v>16</v>
       </c>
@@ -9726,7 +9733,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="44">
         <v>17</v>
       </c>
@@ -9747,7 +9754,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="44">
         <v>18</v>
       </c>
@@ -9768,7 +9775,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="44">
         <v>19</v>
       </c>
@@ -9789,7 +9796,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="44">
         <v>20</v>
       </c>
@@ -9810,7 +9817,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="44">
         <v>21</v>
       </c>
@@ -9831,7 +9838,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="44">
         <v>22</v>
       </c>
@@ -9852,7 +9859,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="44">
         <v>23</v>
       </c>
@@ -9873,7 +9880,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="44">
         <v>24</v>
       </c>
@@ -9894,7 +9901,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="44">
         <v>25</v>
       </c>
@@ -9915,7 +9922,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="44">
         <v>26</v>
       </c>
@@ -9936,7 +9943,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="44">
         <v>27</v>
       </c>
@@ -9957,7 +9964,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="44">
         <v>28</v>
       </c>
@@ -9978,7 +9985,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="44">
         <v>29</v>
       </c>
@@ -9999,7 +10006,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="44">
         <v>30</v>
       </c>
@@ -10020,7 +10027,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="44">
         <v>31</v>
       </c>
@@ -10041,7 +10048,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="44">
         <v>32</v>
       </c>
@@ -10050,7 +10057,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="44">
         <v>33</v>
       </c>
@@ -10059,7 +10066,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="44">
         <v>34</v>
       </c>
@@ -10068,7 +10075,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="44">
         <v>35</v>
       </c>
@@ -10077,7 +10084,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="44">
         <v>36</v>
       </c>
@@ -10086,7 +10093,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="44">
         <v>37</v>
       </c>
@@ -10095,7 +10102,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="44">
         <v>38</v>
       </c>
@@ -10104,7 +10111,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="44">
         <v>39</v>
       </c>
@@ -10113,7 +10120,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="44">
         <v>40</v>
       </c>
@@ -10122,7 +10129,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="44">
         <v>41</v>
       </c>
@@ -10131,7 +10138,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="44">
         <v>42</v>
       </c>
@@ -10140,7 +10147,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="44">
         <v>43</v>
       </c>
@@ -10149,7 +10156,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="44">
         <v>44</v>
       </c>
@@ -10158,7 +10165,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="44">
         <v>45</v>
       </c>
@@ -10167,7 +10174,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="44">
         <v>46</v>
       </c>
@@ -10176,7 +10183,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="44">
         <v>47</v>
       </c>
@@ -10185,7 +10192,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="44">
         <v>48</v>
       </c>
@@ -10194,7 +10201,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="44">
         <v>49</v>
       </c>
@@ -10203,7 +10210,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="44">
         <v>50</v>
       </c>
@@ -10212,7 +10219,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="44">
         <v>51</v>
       </c>
@@ -10221,7 +10228,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="44">
         <v>52</v>
       </c>
@@ -10230,7 +10237,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="44">
         <v>53</v>
       </c>
@@ -10239,7 +10246,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="44">
         <v>54</v>
       </c>
@@ -10248,7 +10255,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="44">
         <v>55</v>
       </c>
@@ -10257,7 +10264,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="44">
         <v>56</v>
       </c>
@@ -10266,7 +10273,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="44">
         <v>57</v>
       </c>
@@ -10275,7 +10282,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="44">
         <v>58</v>
       </c>
@@ -10284,7 +10291,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="44">
         <v>59</v>
       </c>
@@ -10293,7 +10300,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="44">
         <v>60</v>
       </c>
@@ -10302,7 +10309,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
